--- a/raw-data/ocs_soil_health_2022.xlsx
+++ b/raw-data/ocs_soil_health_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS-microinvertebrates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9C1AAC-0D79-564F-A09B-FBB5AAB96988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA4D49-8CB8-0144-8C26-8C79CDF5ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14720" yWindow="-28800" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="94">
   <si>
-    <t>DateSampled</t>
-  </si>
-  <si>
-    <t>Tillage_1to4</t>
-  </si>
-  <si>
     <t>soil_texture_sand</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>entry</t>
   </si>
   <si>
-    <t>treatments</t>
-  </si>
-  <si>
     <t>overall_score</t>
   </si>
   <si>
@@ -307,6 +298,15 @@
   </si>
   <si>
     <t>2.4.B</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>tillage_intensity</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
   </sheetPr>
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,7 +650,7 @@
     <col min="3" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -684,144 +684,144 @@
   <sheetData>
     <row r="1" spans="1:45" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -830,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="1">
         <v>44677</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -967,10 +967,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1">
         <v>44677</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1">
         <v>44677</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1">
         <v>44677</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1378,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1">
         <v>44677</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1515,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1">
         <v>44677</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1652,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1">
         <v>44677</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1789,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
       </c>
       <c r="F9" s="1">
         <v>44677</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1926,10 +1926,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
       </c>
       <c r="F10" s="1">
         <v>44677</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>44677</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2200,10 +2200,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>44677</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1">
         <v>44677</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2474,10 +2474,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>44677</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2611,10 +2611,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
         <v>44677</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2748,10 +2748,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
         <v>44677</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2885,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
         <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
       </c>
       <c r="F17" s="1">
         <v>44677</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3022,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
       </c>
       <c r="F18" s="1">
         <v>44677</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3159,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1">
         <v>44677</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3296,10 +3296,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1">
         <v>44677</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3433,10 +3433,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1">
         <v>44677</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3570,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1">
         <v>44677</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3707,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1">
         <v>44677</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3844,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1">
         <v>44677</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3981,10 +3981,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
         <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
       </c>
       <c r="F25" s="1">
         <v>44677</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4118,10 +4118,10 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
         <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
       </c>
       <c r="F26" s="1">
         <v>44677</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4255,10 +4255,10 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1">
         <v>44677</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4392,10 +4392,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1">
         <v>44677</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4529,10 +4529,10 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1">
         <v>44677</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4666,10 +4666,10 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1">
         <v>44677</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4803,10 +4803,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1">
         <v>44677</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4940,10 +4940,10 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1">
         <v>44677</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5077,10 +5077,10 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
         <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
       </c>
       <c r="F33" s="1">
         <v>44677</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5214,10 +5214,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1">
         <v>44677</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5351,10 +5351,10 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35" s="1">
         <v>44677</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5488,10 +5488,10 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1">
         <v>44677</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5625,10 +5625,10 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1">
         <v>44677</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -5762,10 +5762,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1">
         <v>44677</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -5899,10 +5899,10 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1">
         <v>44677</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -6036,10 +6036,10 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1">
         <v>44677</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -6173,10 +6173,10 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1">
         <v>44677</v>

--- a/raw-data/ocs_soil_health_2022.xlsx
+++ b/raw-data/ocs_soil_health_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA4D49-8CB8-0144-8C26-8C79CDF5ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E46014-4E9A-B942-B6F4-D1BE6B54E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14720" yWindow="-28800" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>soil_texture_sand</t>
   </si>
@@ -39,33 +39,18 @@
     <t>pred_water_capacity</t>
   </si>
   <si>
-    <t>pred_water_capacity_rating</t>
-  </si>
-  <si>
     <t>surface_hardness</t>
   </si>
   <si>
-    <t>surface_hardness_rating</t>
-  </si>
-  <si>
     <t>subsurface_hardness</t>
   </si>
   <si>
-    <t>subsurface_hardness_rating</t>
-  </si>
-  <si>
     <t>aggregate_stability</t>
   </si>
   <si>
-    <t>aggregate_stability_rating</t>
-  </si>
-  <si>
     <t>organic_matter</t>
   </si>
   <si>
-    <t>organic_matter_rating</t>
-  </si>
-  <si>
     <t>soc</t>
   </si>
   <si>
@@ -78,39 +63,21 @@
     <t>pred_soil_protein</t>
   </si>
   <si>
-    <t>pred_soil_protein_rating</t>
-  </si>
-  <si>
     <t>respiration</t>
   </si>
   <si>
-    <t>respiration_rating</t>
-  </si>
-  <si>
     <t>active_carbon</t>
   </si>
   <si>
-    <t>active_carbon_rating</t>
-  </si>
-  <si>
     <t>ph</t>
   </si>
   <si>
-    <t>ph_rating</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>p_rating</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
-    <t>k_rating</t>
-  </si>
-  <si>
     <t>mg</t>
   </si>
   <si>
@@ -135,9 +102,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>minor_elements_rating</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -166,9 +130,6 @@
   </si>
   <si>
     <t>entry</t>
-  </si>
-  <si>
-    <t>overall_score</t>
   </si>
   <si>
     <t>C</t>
@@ -637,10 +598,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS41"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,54 +616,42 @@
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" customWidth="1"/>
-    <col min="32" max="43" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -779,61 +728,22 @@
       <c r="AF1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" s="2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="1">
         <v>44677</v>
@@ -854,111 +764,72 @@
         <v>0.21511709000000001</v>
       </c>
       <c r="L2">
-        <v>80.176854739999996</v>
+        <v>163.75</v>
       </c>
       <c r="M2">
-        <v>163.75</v>
+        <v>363.75</v>
       </c>
       <c r="N2">
-        <v>50.117087849999997</v>
+        <v>11.0136983</v>
       </c>
       <c r="O2">
-        <v>363.75</v>
+        <v>3.2795323949999999</v>
       </c>
       <c r="P2">
-        <v>28.111059269999998</v>
+        <v>2.4751619549999999</v>
       </c>
       <c r="Q2">
-        <v>11.0136983</v>
+        <v>3.355</v>
       </c>
       <c r="R2">
-        <v>13.342409719999999</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="S2">
-        <v>3.2795323949999999</v>
+        <v>7.2847399279999996</v>
       </c>
       <c r="T2">
-        <v>62.1944424</v>
+        <v>0.73486611700000004</v>
       </c>
       <c r="U2">
-        <v>2.4751619549999999</v>
+        <v>675.99055750000002</v>
       </c>
       <c r="V2">
-        <v>3.355</v>
+        <v>7.859</v>
       </c>
       <c r="W2">
-        <v>0.22600000000000001</v>
+        <v>15.41128108</v>
       </c>
       <c r="X2">
-        <v>7.2847399279999996</v>
+        <v>55.201316069999997</v>
       </c>
       <c r="Y2">
-        <v>59.398188220000002</v>
+        <v>134.33128120000001</v>
       </c>
       <c r="Z2">
-        <v>0.73486611700000004</v>
+        <v>0.43856366499999999</v>
       </c>
       <c r="AA2">
-        <v>67.348386939999997</v>
+        <v>5.9975504739999996</v>
       </c>
       <c r="AB2">
-        <v>675.99055750000002</v>
+        <v>1.034856368</v>
       </c>
       <c r="AC2">
-        <v>82.927402540000003</v>
+        <v>1.488808232</v>
       </c>
       <c r="AD2">
-        <v>7.859</v>
+        <v>4981.5446499999998</v>
       </c>
       <c r="AE2">
-        <v>39.427968479999997</v>
+        <v>7.6940993999999999E-2</v>
       </c>
       <c r="AF2">
-        <v>15.41128108</v>
-      </c>
-      <c r="AG2">
-        <v>100</v>
-      </c>
-      <c r="AH2">
-        <v>55.201316069999997</v>
-      </c>
-      <c r="AI2">
-        <v>80.350980019999994</v>
-      </c>
-      <c r="AJ2">
-        <v>134.33128120000001</v>
-      </c>
-      <c r="AK2">
-        <v>0.43856366499999999</v>
-      </c>
-      <c r="AL2">
-        <v>5.9975504739999996</v>
-      </c>
-      <c r="AM2">
-        <v>1.034856368</v>
-      </c>
-      <c r="AN2">
-        <v>1.488808232</v>
-      </c>
-      <c r="AO2">
-        <v>4981.5446499999998</v>
-      </c>
-      <c r="AP2">
-        <v>7.6940993999999999E-2</v>
-      </c>
-      <c r="AQ2">
         <v>4.2586840119999998</v>
       </c>
-      <c r="AR2">
-        <v>100</v>
-      </c>
-      <c r="AS2">
-        <v>63.616231681666669</v>
-      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -967,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>44677</v>
@@ -991,111 +862,72 @@
         <v>0.240654655</v>
       </c>
       <c r="L3">
-        <v>89.266772489999994</v>
+        <v>137.5</v>
       </c>
       <c r="M3">
-        <v>137.5</v>
+        <v>334.375</v>
       </c>
       <c r="N3">
-        <v>62.213993950000003</v>
+        <v>16.448170770000001</v>
       </c>
       <c r="O3">
-        <v>334.375</v>
+        <v>3.9582276840000001</v>
       </c>
       <c r="P3">
-        <v>37.733028150000003</v>
+        <v>2.599391706</v>
       </c>
       <c r="Q3">
-        <v>16.448170770000001</v>
+        <v>3.613</v>
       </c>
       <c r="R3">
-        <v>20.942011740000002</v>
+        <v>0.248</v>
       </c>
       <c r="S3">
-        <v>3.9582276840000001</v>
+        <v>7.7852844970000001</v>
       </c>
       <c r="T3">
-        <v>85.649356260000005</v>
+        <v>1.1179044410000001</v>
       </c>
       <c r="U3">
-        <v>2.599391706</v>
+        <v>765.05165590000001</v>
       </c>
       <c r="V3">
-        <v>3.613</v>
+        <v>7.9809999999999999</v>
       </c>
       <c r="W3">
-        <v>0.248</v>
+        <v>26.736384470000001</v>
       </c>
       <c r="X3">
-        <v>7.7852844970000001</v>
+        <v>67.369301809999996</v>
       </c>
       <c r="Y3">
-        <v>65.153950429999995</v>
+        <v>155.12081130000001</v>
       </c>
       <c r="Z3">
-        <v>1.1179044410000001</v>
+        <v>0.61991968200000003</v>
       </c>
       <c r="AA3">
-        <v>95.785759999999996</v>
+        <v>6.8895619210000003</v>
       </c>
       <c r="AB3">
-        <v>765.05165590000001</v>
+        <v>1.718868209</v>
       </c>
       <c r="AC3">
-        <v>92.402987109999998</v>
+        <v>1.5591919279999999</v>
       </c>
       <c r="AD3">
-        <v>7.9809999999999999</v>
+        <v>5574.2989950000001</v>
       </c>
       <c r="AE3">
-        <v>20.533155130000001</v>
+        <v>0.10801630800000001</v>
       </c>
       <c r="AF3">
-        <v>26.736384470000001</v>
-      </c>
-      <c r="AG3">
-        <v>40.179954170000002</v>
-      </c>
-      <c r="AH3">
-        <v>67.369301809999996</v>
-      </c>
-      <c r="AI3">
-        <v>92.740423100000001</v>
-      </c>
-      <c r="AJ3">
-        <v>155.12081130000001</v>
-      </c>
-      <c r="AK3">
-        <v>0.61991968200000003</v>
-      </c>
-      <c r="AL3">
-        <v>6.8895619210000003</v>
-      </c>
-      <c r="AM3">
-        <v>1.718868209</v>
-      </c>
-      <c r="AN3">
-        <v>1.5591919279999999</v>
-      </c>
-      <c r="AO3">
-        <v>5574.2989950000001</v>
-      </c>
-      <c r="AP3">
-        <v>0.10801630800000001</v>
-      </c>
-      <c r="AQ3">
         <v>4.6259158090000003</v>
       </c>
-      <c r="AR3">
-        <v>100</v>
-      </c>
-      <c r="AS3">
-        <v>66.8834493775</v>
-      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1104,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>44677</v>
@@ -1128,111 +960,72 @@
         <v>0.22376362699999999</v>
       </c>
       <c r="L4">
-        <v>83.669841950000006</v>
+        <v>103.125</v>
       </c>
       <c r="M4">
-        <v>103.125</v>
+        <v>308.75</v>
       </c>
       <c r="N4">
-        <v>76.259136760000004</v>
+        <v>12.5524395</v>
       </c>
       <c r="O4">
-        <v>308.75</v>
+        <v>4.0566221799999997</v>
       </c>
       <c r="P4">
-        <v>46.829938929999997</v>
+        <v>2.636122812</v>
       </c>
       <c r="Q4">
-        <v>12.5524395</v>
+        <v>2.6880000000000002</v>
       </c>
       <c r="R4">
-        <v>15.271357009999999</v>
+        <v>0.253</v>
       </c>
       <c r="S4">
-        <v>4.0566221799999997</v>
+        <v>7.0803891849999996</v>
       </c>
       <c r="T4">
-        <v>87.980742269999993</v>
+        <v>0.76323932699999997</v>
       </c>
       <c r="U4">
-        <v>2.636122812</v>
+        <v>571.76169779999998</v>
       </c>
       <c r="V4">
-        <v>2.6880000000000002</v>
+        <v>8.0280000000000005</v>
       </c>
       <c r="W4">
-        <v>0.253</v>
+        <v>1.1685187619999999</v>
       </c>
       <c r="X4">
-        <v>7.0803891849999996</v>
+        <v>37.352764499999999</v>
       </c>
       <c r="Y4">
-        <v>56.980412739999998</v>
+        <v>168.79452689999999</v>
       </c>
       <c r="Z4">
-        <v>0.76323932699999997</v>
+        <v>0.40831763500000001</v>
       </c>
       <c r="AA4">
-        <v>70.682436589999995</v>
+        <v>4.7039519470000002</v>
       </c>
       <c r="AB4">
-        <v>571.76169779999998</v>
+        <v>0.17594174500000001</v>
       </c>
       <c r="AC4">
-        <v>65.095537649999997</v>
+        <v>1.556918464</v>
       </c>
       <c r="AD4">
-        <v>8.0280000000000005</v>
+        <v>1534.6966890000001</v>
       </c>
       <c r="AE4">
-        <v>15.00162641</v>
+        <v>6.6393111000000005E-2</v>
       </c>
       <c r="AF4">
-        <v>1.1685187619999999</v>
-      </c>
-      <c r="AG4">
-        <v>35.267752700000003</v>
-      </c>
-      <c r="AH4">
-        <v>37.352764499999999</v>
-      </c>
-      <c r="AI4">
-        <v>53.993405500000001</v>
-      </c>
-      <c r="AJ4">
-        <v>168.79452689999999</v>
-      </c>
-      <c r="AK4">
-        <v>0.40831763500000001</v>
-      </c>
-      <c r="AL4">
-        <v>4.7039519470000002</v>
-      </c>
-      <c r="AM4">
-        <v>0.17594174500000001</v>
-      </c>
-      <c r="AN4">
-        <v>1.556918464</v>
-      </c>
-      <c r="AO4">
-        <v>1534.6966890000001</v>
-      </c>
-      <c r="AP4">
-        <v>6.6393111000000005E-2</v>
-      </c>
-      <c r="AQ4">
         <v>2.891420004</v>
       </c>
-      <c r="AR4">
-        <v>88</v>
-      </c>
-      <c r="AS4">
-        <v>57.919349042499995</v>
-      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1241,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>44677</v>
@@ -1265,111 +1058,72 @@
         <v>0.21330344200000001</v>
       </c>
       <c r="L5">
-        <v>79.390703799999997</v>
+        <v>132.5</v>
       </c>
       <c r="M5">
-        <v>132.5</v>
+        <v>343.75</v>
       </c>
       <c r="N5">
-        <v>64.423614939999993</v>
+        <v>22.96553858</v>
       </c>
       <c r="O5">
-        <v>343.75</v>
+        <v>3.698214557</v>
       </c>
       <c r="P5">
-        <v>34.54156158</v>
+        <v>2.3524739060000002</v>
       </c>
       <c r="Q5">
-        <v>22.96553858</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="R5">
-        <v>32.766898359999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="S5">
-        <v>3.698214557</v>
+        <v>6.5400350820000002</v>
       </c>
       <c r="T5">
-        <v>78.106467230000007</v>
+        <v>0.58590676900000005</v>
       </c>
       <c r="U5">
-        <v>2.3524739060000002</v>
+        <v>530.95013689999996</v>
       </c>
       <c r="V5">
-        <v>2.3969999999999998</v>
+        <v>7.9130000000000003</v>
       </c>
       <c r="W5">
-        <v>0.23699999999999999</v>
+        <v>1.238093103</v>
       </c>
       <c r="X5">
-        <v>6.5400350820000002</v>
+        <v>28.779118839999999</v>
       </c>
       <c r="Y5">
-        <v>50.483978639999997</v>
+        <v>155.5995015</v>
       </c>
       <c r="Z5">
-        <v>0.58590676900000005</v>
+        <v>0.40771041800000002</v>
       </c>
       <c r="AA5">
-        <v>48.126560580000003</v>
+        <v>1.5448110319999999</v>
       </c>
       <c r="AB5">
-        <v>530.95013689999996</v>
+        <v>0.13839711399999999</v>
       </c>
       <c r="AC5">
-        <v>56.64322258</v>
+        <v>1.3951925300000001</v>
       </c>
       <c r="AD5">
-        <v>7.9130000000000003</v>
+        <v>1415.8623259999999</v>
       </c>
       <c r="AE5">
-        <v>30.37531255</v>
+        <v>5.2366476000000002E-2</v>
       </c>
       <c r="AF5">
-        <v>1.238093103</v>
-      </c>
-      <c r="AG5">
-        <v>37.100410429999997</v>
-      </c>
-      <c r="AH5">
-        <v>28.779118839999999</v>
-      </c>
-      <c r="AI5">
-        <v>37.31419022</v>
-      </c>
-      <c r="AJ5">
-        <v>155.5995015</v>
-      </c>
-      <c r="AK5">
-        <v>0.40771041800000002</v>
-      </c>
-      <c r="AL5">
-        <v>1.5448110319999999</v>
-      </c>
-      <c r="AM5">
-        <v>0.13839711399999999</v>
-      </c>
-      <c r="AN5">
-        <v>1.3951925300000001</v>
-      </c>
-      <c r="AO5">
-        <v>1415.8623259999999</v>
-      </c>
-      <c r="AP5">
-        <v>5.2366476000000002E-2</v>
-      </c>
-      <c r="AQ5">
         <v>2.1133613389999999</v>
       </c>
-      <c r="AR5">
-        <v>77</v>
-      </c>
-      <c r="AS5">
-        <v>52.189410075833329</v>
-      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1378,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>44677</v>
@@ -1402,111 +1156,72 @@
         <v>0.21735205099999999</v>
       </c>
       <c r="L6">
-        <v>81.120330969999998</v>
+        <v>100.625</v>
       </c>
       <c r="M6">
-        <v>100.625</v>
+        <v>311.875</v>
       </c>
       <c r="N6">
-        <v>77.156559770000001</v>
+        <v>9.4972067039999999</v>
       </c>
       <c r="O6">
-        <v>311.875</v>
+        <v>3.2506300549999998</v>
       </c>
       <c r="P6">
-        <v>45.701587439999997</v>
+        <v>2.074495449</v>
       </c>
       <c r="Q6">
-        <v>9.4972067039999999</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="R6">
-        <v>11.61217474</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="S6">
-        <v>3.2506300549999998</v>
+        <v>5.5623824610000003</v>
       </c>
       <c r="T6">
-        <v>60.96772129</v>
+        <v>0.76323932699999997</v>
       </c>
       <c r="U6">
-        <v>2.074495449</v>
+        <v>549.5008464</v>
       </c>
       <c r="V6">
-        <v>2.2240000000000002</v>
+        <v>8.0890000000000004</v>
       </c>
       <c r="W6">
-        <v>0.20499999999999999</v>
+        <v>1.320054786</v>
       </c>
       <c r="X6">
-        <v>5.5623824610000003</v>
+        <v>29.920110659999999</v>
       </c>
       <c r="Y6">
-        <v>38.815670939999997</v>
+        <v>156.6385832</v>
       </c>
       <c r="Z6">
-        <v>0.76323932699999997</v>
+        <v>0.39364101600000001</v>
       </c>
       <c r="AA6">
-        <v>70.682436589999995</v>
+        <v>3.244144924</v>
       </c>
       <c r="AB6">
-        <v>549.5008464</v>
+        <v>0.16967285200000001</v>
       </c>
       <c r="AC6">
-        <v>60.548566190000003</v>
+        <v>1.398104298</v>
       </c>
       <c r="AD6">
-        <v>8.0890000000000004</v>
+        <v>1689.1407469999999</v>
       </c>
       <c r="AE6">
-        <v>9.4484302699999994</v>
+        <v>6.7869140999999994E-2</v>
       </c>
       <c r="AF6">
-        <v>1.320054786</v>
-      </c>
-      <c r="AG6">
-        <v>39.259363120000003</v>
-      </c>
-      <c r="AH6">
-        <v>29.920110659999999</v>
-      </c>
-      <c r="AI6">
-        <v>39.371455529999999</v>
-      </c>
-      <c r="AJ6">
-        <v>156.6385832</v>
-      </c>
-      <c r="AK6">
-        <v>0.39364101600000001</v>
-      </c>
-      <c r="AL6">
-        <v>3.244144924</v>
-      </c>
-      <c r="AM6">
-        <v>0.16967285200000001</v>
-      </c>
-      <c r="AN6">
-        <v>1.398104298</v>
-      </c>
-      <c r="AO6">
-        <v>1689.1407469999999</v>
-      </c>
-      <c r="AP6">
-        <v>6.7869140999999994E-2</v>
-      </c>
-      <c r="AQ6">
         <v>3.1355542989999998</v>
       </c>
-      <c r="AR6">
-        <v>88</v>
-      </c>
-      <c r="AS6">
-        <v>51.890358070833344</v>
-      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1515,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>44677</v>
@@ -1539,111 +1254,72 @@
         <v>0.21608771399999999</v>
       </c>
       <c r="L7">
-        <v>80.590045180000004</v>
+        <v>123.75</v>
       </c>
       <c r="M7">
-        <v>123.75</v>
+        <v>330</v>
       </c>
       <c r="N7">
-        <v>68.172529170000004</v>
+        <v>15.249652169999999</v>
       </c>
       <c r="O7">
-        <v>330</v>
+        <v>3.3501251820000002</v>
       </c>
       <c r="P7">
-        <v>39.253143430000002</v>
+        <v>2.0929202220000001</v>
       </c>
       <c r="Q7">
-        <v>15.249652169999999</v>
+        <v>2.282</v>
       </c>
       <c r="R7">
-        <v>19.07816957</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="S7">
-        <v>3.3501251820000002</v>
+        <v>5.7204842979999997</v>
       </c>
       <c r="T7">
-        <v>65.137227580000001</v>
+        <v>0.77742593100000001</v>
       </c>
       <c r="U7">
-        <v>2.0929202220000001</v>
+        <v>549.5008464</v>
       </c>
       <c r="V7">
-        <v>2.282</v>
+        <v>8.1140000000000008</v>
       </c>
       <c r="W7">
-        <v>0.20799999999999999</v>
+        <v>1.8569479760000001</v>
       </c>
       <c r="X7">
-        <v>5.7204842979999997</v>
+        <v>29.869205749999999</v>
       </c>
       <c r="Y7">
-        <v>40.66321911</v>
+        <v>149.04072780000001</v>
       </c>
       <c r="Z7">
-        <v>0.77742593100000001</v>
+        <v>0.53158278599999997</v>
       </c>
       <c r="AA7">
-        <v>72.288040170000002</v>
+        <v>3.5810002559999998</v>
       </c>
       <c r="AB7">
-        <v>549.5008464</v>
+        <v>0.54594988899999997</v>
       </c>
       <c r="AC7">
-        <v>60.548566190000003</v>
+        <v>1.4115678039999999</v>
       </c>
       <c r="AD7">
-        <v>8.1140000000000008</v>
+        <v>1785.241769</v>
       </c>
       <c r="AE7">
-        <v>7.6750649270000002</v>
+        <v>7.9019063E-2</v>
       </c>
       <c r="AF7">
-        <v>1.8569479760000001</v>
-      </c>
-      <c r="AG7">
-        <v>53.99454334</v>
-      </c>
-      <c r="AH7">
-        <v>29.869205749999999</v>
-      </c>
-      <c r="AI7">
-        <v>39.27967142</v>
-      </c>
-      <c r="AJ7">
-        <v>149.04072780000001</v>
-      </c>
-      <c r="AK7">
-        <v>0.53158278599999997</v>
-      </c>
-      <c r="AL7">
-        <v>3.5810002559999998</v>
-      </c>
-      <c r="AM7">
-        <v>0.54594988899999997</v>
-      </c>
-      <c r="AN7">
-        <v>1.4115678039999999</v>
-      </c>
-      <c r="AO7">
-        <v>1785.241769</v>
-      </c>
-      <c r="AP7">
-        <v>7.9019063E-2</v>
-      </c>
-      <c r="AQ7">
         <v>2.6004455219999998</v>
       </c>
-      <c r="AR7">
-        <v>100</v>
-      </c>
-      <c r="AS7">
-        <v>53.890018340583332</v>
-      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1652,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>44677</v>
@@ -1676,111 +1352,72 @@
         <v>0.21754246799999999</v>
       </c>
       <c r="L8">
-        <v>81.199414559999994</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>296.25</v>
       </c>
       <c r="N8">
-        <v>77.377900199999999</v>
+        <v>16.24733286</v>
       </c>
       <c r="O8">
-        <v>296.25</v>
+        <v>3.244078757</v>
       </c>
       <c r="P8">
-        <v>51.35976711</v>
+        <v>1.6941244419999999</v>
       </c>
       <c r="Q8">
-        <v>16.24733286</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="R8">
-        <v>20.622419140000002</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="S8">
-        <v>3.244078757</v>
+        <v>5.4074145549999999</v>
       </c>
       <c r="T8">
-        <v>60.688086249999998</v>
+        <v>0.81998574499999999</v>
       </c>
       <c r="U8">
-        <v>1.6941244419999999</v>
+        <v>562.48634300000003</v>
       </c>
       <c r="V8">
-        <v>2.0569999999999999</v>
+        <v>8.0389999999999997</v>
       </c>
       <c r="W8">
-        <v>0.17699999999999999</v>
+        <v>2.9678710220000002</v>
       </c>
       <c r="X8">
-        <v>5.4074145549999999</v>
+        <v>34.394048640000001</v>
       </c>
       <c r="Y8">
-        <v>37.028957480000003</v>
+        <v>137.438154</v>
       </c>
       <c r="Z8">
-        <v>0.81998574499999999</v>
+        <v>0.41412153800000001</v>
       </c>
       <c r="AA8">
-        <v>76.830793810000003</v>
+        <v>6.5224142220000001</v>
       </c>
       <c r="AB8">
-        <v>562.48634300000003</v>
+        <v>0.32000300700000001</v>
       </c>
       <c r="AC8">
-        <v>63.22294857</v>
+        <v>1.2831493110000001</v>
       </c>
       <c r="AD8">
-        <v>8.0389999999999997</v>
+        <v>2421.5631440000002</v>
       </c>
       <c r="AE8">
-        <v>13.86590715</v>
+        <v>5.9608402999999997E-2</v>
       </c>
       <c r="AF8">
-        <v>2.9678710220000002</v>
-      </c>
-      <c r="AG8">
-        <v>85.100388609999996</v>
-      </c>
-      <c r="AH8">
-        <v>34.394048640000001</v>
-      </c>
-      <c r="AI8">
-        <v>48.470370590000002</v>
-      </c>
-      <c r="AJ8">
-        <v>137.438154</v>
-      </c>
-      <c r="AK8">
-        <v>0.41412153800000001</v>
-      </c>
-      <c r="AL8">
-        <v>6.5224142220000001</v>
-      </c>
-      <c r="AM8">
-        <v>0.32000300700000001</v>
-      </c>
-      <c r="AN8">
-        <v>1.2831493110000001</v>
-      </c>
-      <c r="AO8">
-        <v>2421.5631440000002</v>
-      </c>
-      <c r="AP8">
-        <v>5.9608402999999997E-2</v>
-      </c>
-      <c r="AQ8">
         <v>3.1937554970000002</v>
       </c>
-      <c r="AR8">
-        <v>100</v>
-      </c>
-      <c r="AS8">
-        <v>59.6472461225</v>
-      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1789,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>44677</v>
@@ -1813,111 +1450,72 @@
         <v>0.21959025500000001</v>
       </c>
       <c r="L9">
-        <v>82.036924029999994</v>
+        <v>147.5</v>
       </c>
       <c r="M9">
-        <v>147.5</v>
+        <v>322.5</v>
       </c>
       <c r="N9">
-        <v>57.67975182</v>
+        <v>18.90795056</v>
       </c>
       <c r="O9">
-        <v>322.5</v>
+        <v>3.5715138770000001</v>
       </c>
       <c r="P9">
-        <v>41.89636376</v>
+        <v>2.3090761930000001</v>
       </c>
       <c r="Q9">
-        <v>18.90795056</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="R9">
-        <v>25.086171449999998</v>
+        <v>0.224</v>
       </c>
       <c r="S9">
-        <v>3.5715138770000001</v>
+        <v>6.3168922969999999</v>
       </c>
       <c r="T9">
-        <v>73.729082070000004</v>
+        <v>0.77033262899999999</v>
       </c>
       <c r="U9">
-        <v>2.3090761930000001</v>
+        <v>581.03705249999996</v>
       </c>
       <c r="V9">
-        <v>2.4969999999999999</v>
+        <v>8.1020000000000003</v>
       </c>
       <c r="W9">
-        <v>0.224</v>
+        <v>5.0203025979999998</v>
       </c>
       <c r="X9">
-        <v>6.3168922969999999</v>
+        <v>40.331061439999999</v>
       </c>
       <c r="Y9">
-        <v>47.787517039999997</v>
+        <v>155.3742575</v>
       </c>
       <c r="Z9">
-        <v>0.77033262899999999</v>
+        <v>0.544839042</v>
       </c>
       <c r="AA9">
-        <v>71.490626719999995</v>
+        <v>3.0830971169999999</v>
       </c>
       <c r="AB9">
-        <v>581.03705249999996</v>
+        <v>0.34592954999999997</v>
       </c>
       <c r="AC9">
-        <v>66.932067549999999</v>
+        <v>1.3145322909999999</v>
       </c>
       <c r="AD9">
-        <v>8.1020000000000003</v>
+        <v>1856.379042</v>
       </c>
       <c r="AE9">
-        <v>8.4918573689999999</v>
+        <v>8.2158268000000007E-2</v>
       </c>
       <c r="AF9">
-        <v>5.0203025979999998</v>
-      </c>
-      <c r="AG9">
-        <v>100</v>
-      </c>
-      <c r="AH9">
-        <v>40.331061439999999</v>
-      </c>
-      <c r="AI9">
-        <v>59.55299239</v>
-      </c>
-      <c r="AJ9">
-        <v>155.3742575</v>
-      </c>
-      <c r="AK9">
-        <v>0.544839042</v>
-      </c>
-      <c r="AL9">
-        <v>3.0830971169999999</v>
-      </c>
-      <c r="AM9">
-        <v>0.34592954999999997</v>
-      </c>
-      <c r="AN9">
-        <v>1.3145322909999999</v>
-      </c>
-      <c r="AO9">
-        <v>1856.379042</v>
-      </c>
-      <c r="AP9">
-        <v>8.2158268000000007E-2</v>
-      </c>
-      <c r="AQ9">
         <v>2.9274288190000002</v>
       </c>
-      <c r="AR9">
-        <v>100</v>
-      </c>
-      <c r="AS9">
-        <v>61.223612849916663</v>
-      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1926,10 +1524,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>44677</v>
@@ -1950,111 +1548,72 @@
         <v>0.218015813</v>
       </c>
       <c r="L10">
-        <v>81.395115649999994</v>
+        <v>121.875</v>
       </c>
       <c r="M10">
-        <v>121.875</v>
+        <v>310.875</v>
       </c>
       <c r="N10">
-        <v>68.953791100000004</v>
+        <v>15.63453035</v>
       </c>
       <c r="O10">
-        <v>310.875</v>
+        <v>3.221064868</v>
       </c>
       <c r="P10">
-        <v>46.062327070000002</v>
+        <v>2.0548535600000002</v>
       </c>
       <c r="Q10">
-        <v>15.63453035</v>
+        <v>2.2869999999999999</v>
       </c>
       <c r="R10">
-        <v>19.665301929999998</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="S10">
-        <v>3.221064868</v>
+        <v>5.7550388039999998</v>
       </c>
       <c r="T10">
-        <v>59.701475090000002</v>
+        <v>0.65542113199999996</v>
       </c>
       <c r="U10">
-        <v>2.0548535600000002</v>
+        <v>569.90662680000003</v>
       </c>
       <c r="V10">
-        <v>2.2869999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="W10">
-        <v>0.20300000000000001</v>
+        <v>2.8662978180000001</v>
       </c>
       <c r="X10">
-        <v>5.7550388039999998</v>
+        <v>30.157746530000001</v>
       </c>
       <c r="Y10">
-        <v>41.069956050000002</v>
+        <v>150.16061189999999</v>
       </c>
       <c r="Z10">
-        <v>0.65542113199999996</v>
+        <v>0.496930967</v>
       </c>
       <c r="AA10">
-        <v>57.328237970000004</v>
+        <v>3.4665904259999998</v>
       </c>
       <c r="AB10">
-        <v>569.90662680000003</v>
+        <v>0.182870596</v>
       </c>
       <c r="AC10">
-        <v>64.723777420000005</v>
+        <v>1.753172452</v>
       </c>
       <c r="AD10">
-        <v>8.24</v>
+        <v>1869.1004829999999</v>
       </c>
       <c r="AE10">
-        <v>2.2750131950000001</v>
+        <v>6.7582612E-2</v>
       </c>
       <c r="AF10">
-        <v>2.8662978180000001</v>
-      </c>
-      <c r="AG10">
-        <v>82.256338909999997</v>
-      </c>
-      <c r="AH10">
-        <v>30.157746530000001</v>
-      </c>
-      <c r="AI10">
-        <v>39.799924879999999</v>
-      </c>
-      <c r="AJ10">
-        <v>150.16061189999999</v>
-      </c>
-      <c r="AK10">
-        <v>0.496930967</v>
-      </c>
-      <c r="AL10">
-        <v>3.4665904259999998</v>
-      </c>
-      <c r="AM10">
-        <v>0.182870596</v>
-      </c>
-      <c r="AN10">
-        <v>1.753172452</v>
-      </c>
-      <c r="AO10">
-        <v>1869.1004829999999</v>
-      </c>
-      <c r="AP10">
-        <v>6.7582612E-2</v>
-      </c>
-      <c r="AQ10">
         <v>3.5580257240000002</v>
       </c>
-      <c r="AR10">
-        <v>88</v>
-      </c>
-      <c r="AS10">
-        <v>54.26927160541667</v>
-      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2063,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1">
         <v>44677</v>
@@ -2087,111 +1646,72 @@
         <v>0.21481280799999999</v>
       </c>
       <c r="L11">
-        <v>80.046238310000007</v>
+        <v>107.5</v>
       </c>
       <c r="M11">
-        <v>107.5</v>
+        <v>298.75</v>
       </c>
       <c r="N11">
-        <v>74.643118009999995</v>
+        <v>19.807793270000001</v>
       </c>
       <c r="O11">
-        <v>298.75</v>
+        <v>3.280718566</v>
       </c>
       <c r="P11">
-        <v>50.453333739999998</v>
+        <v>1.9328950039999999</v>
       </c>
       <c r="Q11">
-        <v>19.807793270000001</v>
+        <v>2.351</v>
       </c>
       <c r="R11">
-        <v>26.704022380000001</v>
+        <v>0.193</v>
       </c>
       <c r="S11">
-        <v>3.280718566</v>
+        <v>5.4671480800000003</v>
       </c>
       <c r="T11">
-        <v>62.24453553</v>
+        <v>0.76182066599999998</v>
       </c>
       <c r="U11">
-        <v>1.9328950039999999</v>
+        <v>484.57336320000002</v>
       </c>
       <c r="V11">
-        <v>2.351</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="W11">
-        <v>0.193</v>
+        <v>2.8878006699999998</v>
       </c>
       <c r="X11">
-        <v>5.4671480800000003</v>
+        <v>34.888829899999998</v>
       </c>
       <c r="Y11">
-        <v>37.714586570000002</v>
+        <v>165.30306619999999</v>
       </c>
       <c r="Z11">
-        <v>0.76182066599999998</v>
+        <v>0.53196328100000001</v>
       </c>
       <c r="AA11">
-        <v>70.51953254</v>
+        <v>4.3497949939999998</v>
       </c>
       <c r="AB11">
-        <v>484.57336320000002</v>
+        <v>0.246078253</v>
       </c>
       <c r="AC11">
-        <v>46.677182270000003</v>
+        <v>1.896250064</v>
       </c>
       <c r="AD11">
-        <v>8.4320000000000004</v>
+        <v>2596.3680239999999</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>7.9613552000000004E-2</v>
       </c>
       <c r="AF11">
-        <v>2.8878006699999998</v>
-      </c>
-      <c r="AG11">
-        <v>82.858418760000006</v>
-      </c>
-      <c r="AH11">
-        <v>34.888829899999998</v>
-      </c>
-      <c r="AI11">
-        <v>49.393978769999997</v>
-      </c>
-      <c r="AJ11">
-        <v>165.30306619999999</v>
-      </c>
-      <c r="AK11">
-        <v>0.53196328100000001</v>
-      </c>
-      <c r="AL11">
-        <v>4.3497949939999998</v>
-      </c>
-      <c r="AM11">
-        <v>0.246078253</v>
-      </c>
-      <c r="AN11">
-        <v>1.896250064</v>
-      </c>
-      <c r="AO11">
-        <v>2596.3680239999999</v>
-      </c>
-      <c r="AP11">
-        <v>7.9613552000000004E-2</v>
-      </c>
-      <c r="AQ11">
         <v>3.1519729120000002</v>
       </c>
-      <c r="AR11">
-        <v>88</v>
-      </c>
-      <c r="AS11">
-        <v>55.771245573333324</v>
-      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2200,10 +1720,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>44677</v>
@@ -2224,111 +1744,72 @@
         <v>0.21509824399999999</v>
       </c>
       <c r="L12">
-        <v>80.168780069999997</v>
+        <v>102.5</v>
       </c>
       <c r="M12">
-        <v>102.5</v>
+        <v>325</v>
       </c>
       <c r="N12">
-        <v>76.485290559999996</v>
+        <v>10.25262846</v>
       </c>
       <c r="O12">
-        <v>325</v>
+        <v>2.9580524229999998</v>
       </c>
       <c r="P12">
-        <v>41.010583939999997</v>
+        <v>1.812879004</v>
       </c>
       <c r="Q12">
-        <v>10.25262846</v>
+        <v>2.218</v>
       </c>
       <c r="R12">
-        <v>12.45307824</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="S12">
-        <v>2.9580524229999998</v>
+        <v>4.7457563519999999</v>
       </c>
       <c r="T12">
-        <v>48.141266100000003</v>
+        <v>0.69798094600000005</v>
       </c>
       <c r="U12">
-        <v>1.812879004</v>
+        <v>453.0371571</v>
       </c>
       <c r="V12">
-        <v>2.218</v>
+        <v>8.2739999999999991</v>
       </c>
       <c r="W12">
-        <v>0.17399999999999999</v>
+        <v>1.1912962600000001</v>
       </c>
       <c r="X12">
-        <v>4.7457563519999999</v>
+        <v>32.559809029999997</v>
       </c>
       <c r="Y12">
-        <v>29.750534800000001</v>
+        <v>185.7804203</v>
       </c>
       <c r="Z12">
-        <v>0.69798094600000005</v>
+        <v>0.54930086899999997</v>
       </c>
       <c r="AA12">
-        <v>62.801597030000003</v>
+        <v>4.0510939109999997</v>
       </c>
       <c r="AB12">
-        <v>453.0371571</v>
+        <v>0.29868234799999999</v>
       </c>
       <c r="AC12">
-        <v>39.980448379999999</v>
+        <v>2.0907764339999999</v>
       </c>
       <c r="AD12">
-        <v>8.2739999999999991</v>
+        <v>2641.7664030000001</v>
       </c>
       <c r="AE12">
-        <v>1.559871067</v>
+        <v>7.8962000000000004E-2</v>
       </c>
       <c r="AF12">
-        <v>1.1912962600000001</v>
-      </c>
-      <c r="AG12">
-        <v>35.86773479</v>
-      </c>
-      <c r="AH12">
-        <v>32.559809029999997</v>
-      </c>
-      <c r="AI12">
-        <v>45.046395519999997</v>
-      </c>
-      <c r="AJ12">
-        <v>185.7804203</v>
-      </c>
-      <c r="AK12">
-        <v>0.54930086899999997</v>
-      </c>
-      <c r="AL12">
-        <v>4.0510939109999997</v>
-      </c>
-      <c r="AM12">
-        <v>0.29868234799999999</v>
-      </c>
-      <c r="AN12">
-        <v>2.0907764339999999</v>
-      </c>
-      <c r="AO12">
-        <v>2641.7664030000001</v>
-      </c>
-      <c r="AP12">
-        <v>7.8962000000000004E-2</v>
-      </c>
-      <c r="AQ12">
         <v>3.3576015639999999</v>
       </c>
-      <c r="AR12">
-        <v>100</v>
-      </c>
-      <c r="AS12">
-        <v>47.772131708083329</v>
-      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2337,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>44677</v>
@@ -2361,111 +1842,72 @@
         <v>0.21880513100000001</v>
       </c>
       <c r="L13">
-        <v>81.71863243</v>
+        <v>103.125</v>
       </c>
       <c r="M13">
-        <v>103.125</v>
+        <v>345</v>
       </c>
       <c r="N13">
-        <v>76.259136760000004</v>
+        <v>14.064763429999999</v>
       </c>
       <c r="O13">
-        <v>345</v>
+        <v>3.2851856019999999</v>
       </c>
       <c r="P13">
-        <v>34.12364737</v>
+        <v>2.110697944</v>
       </c>
       <c r="Q13">
-        <v>14.064763429999999</v>
+        <v>2.4710000000000001</v>
       </c>
       <c r="R13">
-        <v>17.339176989999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="S13">
-        <v>3.2851856019999999</v>
+        <v>5.64452116</v>
       </c>
       <c r="T13">
-        <v>62.432997360000002</v>
+        <v>0.73344745700000002</v>
       </c>
       <c r="U13">
-        <v>2.110697944</v>
+        <v>525.38492410000003</v>
       </c>
       <c r="V13">
-        <v>2.4710000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="W13">
-        <v>0.19900000000000001</v>
+        <v>1.5901798890000001</v>
       </c>
       <c r="X13">
-        <v>5.64452116</v>
+        <v>35.433183380000003</v>
       </c>
       <c r="Y13">
-        <v>39.772657340000002</v>
+        <v>179.253028</v>
       </c>
       <c r="Z13">
-        <v>0.73344745700000002</v>
+        <v>1.0693959749999999</v>
       </c>
       <c r="AA13">
-        <v>67.177683520000002</v>
+        <v>5.7962056960000004</v>
       </c>
       <c r="AB13">
-        <v>525.38492410000003</v>
+        <v>0.222625184</v>
       </c>
       <c r="AC13">
-        <v>55.456989100000001</v>
+        <v>2.6118704679999998</v>
       </c>
       <c r="AD13">
-        <v>8.3800000000000008</v>
+        <v>2161.6348849999999</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>7.5533544999999994E-2</v>
       </c>
       <c r="AF13">
-        <v>1.5901798890000001</v>
-      </c>
-      <c r="AG13">
-        <v>46.525036890000003</v>
-      </c>
-      <c r="AH13">
-        <v>35.433183380000003</v>
-      </c>
-      <c r="AI13">
-        <v>50.410123409999997</v>
-      </c>
-      <c r="AJ13">
-        <v>179.253028</v>
-      </c>
-      <c r="AK13">
-        <v>1.0693959749999999</v>
-      </c>
-      <c r="AL13">
-        <v>5.7962056960000004</v>
-      </c>
-      <c r="AM13">
-        <v>0.222625184</v>
-      </c>
-      <c r="AN13">
-        <v>2.6118704679999998</v>
-      </c>
-      <c r="AO13">
-        <v>2161.6348849999999</v>
-      </c>
-      <c r="AP13">
-        <v>7.5533544999999994E-2</v>
-      </c>
-      <c r="AQ13">
         <v>3.2201142749999998</v>
       </c>
-      <c r="AR13">
-        <v>88</v>
-      </c>
-      <c r="AS13">
-        <v>51.601340097500007</v>
-      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2474,10 +1916,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1">
         <v>44677</v>
@@ -2498,111 +1940,72 @@
         <v>0.20374611200000001</v>
       </c>
       <c r="L14">
-        <v>74.953179599999999</v>
+        <v>93.75</v>
       </c>
       <c r="M14">
-        <v>93.75</v>
+        <v>323.75</v>
       </c>
       <c r="N14">
-        <v>79.523588079999996</v>
+        <v>16.73720462</v>
       </c>
       <c r="O14">
-        <v>323.75</v>
+        <v>2.8965353519999999</v>
       </c>
       <c r="P14">
-        <v>41.452930539999997</v>
+        <v>1.775292979</v>
       </c>
       <c r="Q14">
-        <v>16.73720462</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="R14">
-        <v>21.407029130000002</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="S14">
-        <v>2.8965353519999999</v>
+        <v>4.9999084150000002</v>
       </c>
       <c r="T14">
-        <v>45.423812830000003</v>
+        <v>0.75472736399999996</v>
       </c>
       <c r="U14">
-        <v>1.775292979</v>
+        <v>516.10956929999998</v>
       </c>
       <c r="V14">
-        <v>2.2309999999999999</v>
+        <v>8.3930000000000007</v>
       </c>
       <c r="W14">
-        <v>0.17399999999999999</v>
+        <v>1.584091291</v>
       </c>
       <c r="X14">
-        <v>4.9999084150000002</v>
+        <v>37.694172309999999</v>
       </c>
       <c r="Y14">
-        <v>32.470815680000001</v>
+        <v>187.0242327</v>
       </c>
       <c r="Z14">
-        <v>0.75472736399999996</v>
+        <v>0.409114486</v>
       </c>
       <c r="AA14">
-        <v>69.6988238</v>
+        <v>4.3758885459999997</v>
       </c>
       <c r="AB14">
-        <v>516.10956929999998</v>
+        <v>0.16364579500000001</v>
       </c>
       <c r="AC14">
-        <v>53.469554309999999</v>
+        <v>1.9310203749999999</v>
       </c>
       <c r="AD14">
-        <v>8.3930000000000007</v>
+        <v>3073.3105690000002</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>5.2366653999999999E-2</v>
       </c>
       <c r="AF14">
-        <v>1.584091291</v>
-      </c>
-      <c r="AG14">
-        <v>46.354556150000001</v>
-      </c>
-      <c r="AH14">
-        <v>37.694172309999999</v>
-      </c>
-      <c r="AI14">
-        <v>54.63071145</v>
-      </c>
-      <c r="AJ14">
-        <v>187.0242327</v>
-      </c>
-      <c r="AK14">
-        <v>0.409114486</v>
-      </c>
-      <c r="AL14">
-        <v>4.3758885459999997</v>
-      </c>
-      <c r="AM14">
-        <v>0.16364579500000001</v>
-      </c>
-      <c r="AN14">
-        <v>1.9310203749999999</v>
-      </c>
-      <c r="AO14">
-        <v>3073.3105690000002</v>
-      </c>
-      <c r="AP14">
-        <v>5.2366653999999999E-2</v>
-      </c>
-      <c r="AQ14">
         <v>3.2140034040000001</v>
       </c>
-      <c r="AR14">
-        <v>88</v>
-      </c>
-      <c r="AS14">
-        <v>50.615416797499996</v>
-      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2611,10 +2014,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1">
         <v>44677</v>
@@ -2635,111 +2038,72 @@
         <v>0.20550970700000001</v>
       </c>
       <c r="L15">
-        <v>75.808297499999995</v>
+        <v>162.5</v>
       </c>
       <c r="M15">
-        <v>162.5</v>
+        <v>352.5</v>
       </c>
       <c r="N15">
-        <v>50.702491770000002</v>
+        <v>16.946784019999999</v>
       </c>
       <c r="O15">
-        <v>352.5</v>
+        <v>3.1461344269999998</v>
       </c>
       <c r="P15">
-        <v>31.658396440000001</v>
+        <v>1.9112089370000001</v>
       </c>
       <c r="Q15">
-        <v>16.946784019999999</v>
+        <v>2.2509999999999999</v>
       </c>
       <c r="R15">
-        <v>21.747941449999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="S15">
-        <v>3.1461344269999998</v>
+        <v>5.4463119899999999</v>
       </c>
       <c r="T15">
-        <v>56.449337739999997</v>
+        <v>0.768913968</v>
       </c>
       <c r="U15">
-        <v>1.9112089370000001</v>
+        <v>540.22549170000002</v>
       </c>
       <c r="V15">
-        <v>2.2509999999999999</v>
+        <v>8.3889999999999993</v>
       </c>
       <c r="W15">
-        <v>0.19600000000000001</v>
+        <v>2.4640529569999998</v>
       </c>
       <c r="X15">
-        <v>5.4463119899999999</v>
+        <v>42.817082380000002</v>
       </c>
       <c r="Y15">
-        <v>37.474974490000001</v>
+        <v>180.50436579999999</v>
       </c>
       <c r="Z15">
-        <v>0.768913968</v>
+        <v>0.72423178099999996</v>
       </c>
       <c r="AA15">
-        <v>71.329841070000001</v>
+        <v>5.0696224689999996</v>
       </c>
       <c r="AB15">
-        <v>540.22549170000002</v>
+        <v>0.237248342</v>
       </c>
       <c r="AC15">
-        <v>58.606535630000003</v>
+        <v>2.2309668660000002</v>
       </c>
       <c r="AD15">
-        <v>8.3889999999999993</v>
+        <v>3037.9858319999998</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>7.9082781000000005E-2</v>
       </c>
       <c r="AF15">
-        <v>2.4640529569999998</v>
-      </c>
-      <c r="AG15">
-        <v>70.993482790000002</v>
-      </c>
-      <c r="AH15">
-        <v>42.817082380000002</v>
-      </c>
-      <c r="AI15">
-        <v>64.193647670000004</v>
-      </c>
-      <c r="AJ15">
-        <v>180.50436579999999</v>
-      </c>
-      <c r="AK15">
-        <v>0.72423178099999996</v>
-      </c>
-      <c r="AL15">
-        <v>5.0696224689999996</v>
-      </c>
-      <c r="AM15">
-        <v>0.237248342</v>
-      </c>
-      <c r="AN15">
-        <v>2.2309668660000002</v>
-      </c>
-      <c r="AO15">
-        <v>3037.9858319999998</v>
-      </c>
-      <c r="AP15">
-        <v>7.9082781000000005E-2</v>
-      </c>
-      <c r="AQ15">
         <v>3.0800661960000002</v>
       </c>
-      <c r="AR15">
-        <v>88</v>
-      </c>
-      <c r="AS15">
-        <v>52.247078879166672</v>
-      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2748,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>44677</v>
@@ -2772,111 +2136,72 @@
         <v>0.20553555400000001</v>
       </c>
       <c r="L16">
-        <v>75.820711329999995</v>
+        <v>96.875</v>
       </c>
       <c r="M16">
-        <v>96.875</v>
+        <v>299.375</v>
       </c>
       <c r="N16">
-        <v>78.466249669999996</v>
+        <v>21.431867279999999</v>
       </c>
       <c r="O16">
-        <v>299.375</v>
+        <v>3.1098273359999999</v>
       </c>
       <c r="P16">
-        <v>50.22667053</v>
+        <v>2.0103990650000001</v>
       </c>
       <c r="Q16">
-        <v>21.431867279999999</v>
+        <v>2.11</v>
       </c>
       <c r="R16">
-        <v>29.751437289999998</v>
+        <v>0.2</v>
       </c>
       <c r="S16">
-        <v>3.1098273359999999</v>
+        <v>5.3604625669999999</v>
       </c>
       <c r="T16">
-        <v>54.856251819999997</v>
+        <v>0.86112689799999997</v>
       </c>
       <c r="U16">
-        <v>2.0103990650000001</v>
+        <v>536.51534979999997</v>
       </c>
       <c r="V16">
-        <v>2.11</v>
+        <v>8.3930000000000007</v>
       </c>
       <c r="W16">
-        <v>0.2</v>
+        <v>1.583975278</v>
       </c>
       <c r="X16">
-        <v>5.3604625669999999</v>
+        <v>29.443874470000001</v>
       </c>
       <c r="Y16">
-        <v>36.492902100000002</v>
+        <v>150.05504300000001</v>
       </c>
       <c r="Z16">
-        <v>0.86112689799999997</v>
+        <v>0.29034170100000001</v>
       </c>
       <c r="AA16">
-        <v>80.796535750000004</v>
+        <v>3.4228060490000001</v>
       </c>
       <c r="AB16">
-        <v>536.51534979999997</v>
+        <v>0.17420501999999999</v>
       </c>
       <c r="AC16">
-        <v>57.823501550000003</v>
+        <v>1.3968661819999999</v>
       </c>
       <c r="AD16">
-        <v>8.3930000000000007</v>
+        <v>1387.239742</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>7.4198434999999993E-2</v>
       </c>
       <c r="AF16">
-        <v>1.583975278</v>
-      </c>
-      <c r="AG16">
-        <v>46.35130779</v>
-      </c>
-      <c r="AH16">
-        <v>29.443874470000001</v>
-      </c>
-      <c r="AI16">
-        <v>38.51277786</v>
-      </c>
-      <c r="AJ16">
-        <v>150.05504300000001</v>
-      </c>
-      <c r="AK16">
-        <v>0.29034170100000001</v>
-      </c>
-      <c r="AL16">
-        <v>3.4228060490000001</v>
-      </c>
-      <c r="AM16">
-        <v>0.17420501999999999</v>
-      </c>
-      <c r="AN16">
-        <v>1.3968661819999999</v>
-      </c>
-      <c r="AO16">
-        <v>1387.239742</v>
-      </c>
-      <c r="AP16">
-        <v>7.4198434999999993E-2</v>
-      </c>
-      <c r="AQ16">
         <v>3.035683782</v>
       </c>
-      <c r="AR16">
-        <v>88</v>
-      </c>
-      <c r="AS16">
-        <v>53.091528807500005</v>
-      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2885,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1">
         <v>44677</v>
@@ -2909,111 +2234,72 @@
         <v>0.216141109</v>
       </c>
       <c r="L17">
-        <v>80.612621880000006</v>
+        <v>132.5</v>
       </c>
       <c r="M17">
-        <v>132.5</v>
+        <v>321.25</v>
       </c>
       <c r="N17">
-        <v>64.423614939999993</v>
+        <v>30.367945639999999</v>
       </c>
       <c r="O17">
-        <v>321.25</v>
+        <v>3.7122252699999998</v>
       </c>
       <c r="P17">
-        <v>42.340828879999997</v>
+        <v>2.4329413340000001</v>
       </c>
       <c r="Q17">
-        <v>30.367945639999999</v>
+        <v>2.5</v>
       </c>
       <c r="R17">
-        <v>48.599436670000003</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="S17">
-        <v>3.7122252699999998</v>
+        <v>6.4317106690000001</v>
       </c>
       <c r="T17">
-        <v>78.563343919999994</v>
+        <v>0.74763406200000004</v>
       </c>
       <c r="U17">
-        <v>2.4329413340000001</v>
+        <v>608.86311679999994</v>
       </c>
       <c r="V17">
-        <v>2.5</v>
+        <v>8.2650000000000006</v>
       </c>
       <c r="W17">
-        <v>0.23799999999999999</v>
+        <v>2.1432557550000002</v>
       </c>
       <c r="X17">
-        <v>6.4317106690000001</v>
+        <v>35.024027050000001</v>
       </c>
       <c r="Y17">
-        <v>49.174498270000001</v>
+        <v>151.58936410000001</v>
       </c>
       <c r="Z17">
-        <v>0.74763406200000004</v>
+        <v>0.67187877399999996</v>
       </c>
       <c r="AA17">
-        <v>68.868045910000006</v>
+        <v>3.997491031</v>
       </c>
       <c r="AB17">
-        <v>608.86311679999994</v>
+        <v>0.266499402</v>
       </c>
       <c r="AC17">
-        <v>72.188461570000001</v>
+        <v>1.8429747379999999</v>
       </c>
       <c r="AD17">
-        <v>8.2650000000000006</v>
+        <v>1414.9579309999999</v>
       </c>
       <c r="AE17">
-        <v>1.7273168759999999</v>
+        <v>8.6330792000000003E-2</v>
       </c>
       <c r="AF17">
-        <v>2.1432557550000002</v>
-      </c>
-      <c r="AG17">
-        <v>62.011161129999998</v>
-      </c>
-      <c r="AH17">
-        <v>35.024027050000001</v>
-      </c>
-      <c r="AI17">
-        <v>49.646351299999999</v>
-      </c>
-      <c r="AJ17">
-        <v>151.58936410000001</v>
-      </c>
-      <c r="AK17">
-        <v>0.67187877399999996</v>
-      </c>
-      <c r="AL17">
-        <v>3.997491031</v>
-      </c>
-      <c r="AM17">
-        <v>0.266499402</v>
-      </c>
-      <c r="AN17">
-        <v>1.8429747379999999</v>
-      </c>
-      <c r="AO17">
-        <v>1414.9579309999999</v>
-      </c>
-      <c r="AP17">
-        <v>8.6330792000000003E-2</v>
-      </c>
-      <c r="AQ17">
         <v>2.7851064270000001</v>
       </c>
-      <c r="AR17">
-        <v>100</v>
-      </c>
-      <c r="AS17">
-        <v>59.846306778833338</v>
-      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3022,10 +2308,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1">
         <v>44677</v>
@@ -3046,111 +2332,72 @@
         <v>0.209859614</v>
       </c>
       <c r="L18">
-        <v>77.848034279999993</v>
+        <v>156.25</v>
       </c>
       <c r="M18">
-        <v>156.25</v>
+        <v>352.5</v>
       </c>
       <c r="N18">
-        <v>53.624726789999997</v>
+        <v>15.69749361</v>
       </c>
       <c r="O18">
-        <v>352.5</v>
+        <v>3.1463803960000001</v>
       </c>
       <c r="P18">
-        <v>31.658396440000001</v>
+        <v>1.6633796329999999</v>
       </c>
       <c r="Q18">
-        <v>15.69749361</v>
+        <v>2.1469999999999998</v>
       </c>
       <c r="R18">
-        <v>19.76238378</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="S18">
-        <v>3.1463803960000001</v>
+        <v>5.2590313780000004</v>
       </c>
       <c r="T18">
-        <v>56.460097759999996</v>
+        <v>0.86254555899999996</v>
       </c>
       <c r="U18">
-        <v>1.6633796329999999</v>
+        <v>553.21098830000005</v>
       </c>
       <c r="V18">
-        <v>2.1469999999999998</v>
+        <v>8.2330000000000005</v>
       </c>
       <c r="W18">
-        <v>0.17199999999999999</v>
+        <v>1.4197916310000001</v>
       </c>
       <c r="X18">
-        <v>5.2590313780000004</v>
+        <v>29.360606690000001</v>
       </c>
       <c r="Y18">
-        <v>35.343945439999999</v>
+        <v>168.3222849</v>
       </c>
       <c r="Z18">
-        <v>0.86254555899999996</v>
+        <v>0.51317769800000002</v>
       </c>
       <c r="AA18">
-        <v>80.925435930000006</v>
+        <v>2.1279768539999999</v>
       </c>
       <c r="AB18">
-        <v>553.21098830000005</v>
+        <v>0.15053212499999999</v>
       </c>
       <c r="AC18">
-        <v>61.318384870000003</v>
+        <v>1.3821585999999999</v>
       </c>
       <c r="AD18">
-        <v>8.2330000000000005</v>
+        <v>1381.121981</v>
       </c>
       <c r="AE18">
-        <v>2.452356075</v>
+        <v>6.8423692999999994E-2</v>
       </c>
       <c r="AF18">
-        <v>1.4197916310000001</v>
-      </c>
-      <c r="AG18">
-        <v>41.886531349999998</v>
-      </c>
-      <c r="AH18">
-        <v>29.360606690000001</v>
-      </c>
-      <c r="AI18">
-        <v>38.3626419</v>
-      </c>
-      <c r="AJ18">
-        <v>168.3222849</v>
-      </c>
-      <c r="AK18">
-        <v>0.51317769800000002</v>
-      </c>
-      <c r="AL18">
-        <v>2.1279768539999999</v>
-      </c>
-      <c r="AM18">
-        <v>0.15053212499999999</v>
-      </c>
-      <c r="AN18">
-        <v>1.3821585999999999</v>
-      </c>
-      <c r="AO18">
-        <v>1381.121981</v>
-      </c>
-      <c r="AP18">
-        <v>6.8423692999999994E-2</v>
-      </c>
-      <c r="AQ18">
         <v>2.4837800579999998</v>
       </c>
-      <c r="AR18">
-        <v>77</v>
-      </c>
-      <c r="AS18">
-        <v>48.053577884583326</v>
-      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3159,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1">
         <v>44677</v>
@@ -3183,111 +2430,72 @@
         <v>0.205797427</v>
       </c>
       <c r="L19">
-        <v>75.946286799999996</v>
+        <v>171.875</v>
       </c>
       <c r="M19">
-        <v>171.875</v>
+        <v>360</v>
       </c>
       <c r="N19">
-        <v>46.316974930000001</v>
+        <v>13.13692889</v>
       </c>
       <c r="O19">
-        <v>360</v>
+        <v>3.0140381559999998</v>
       </c>
       <c r="P19">
-        <v>29.27204673</v>
+        <v>1.8608973470000001</v>
       </c>
       <c r="Q19">
-        <v>13.13692889</v>
+        <v>2.4489999999999998</v>
       </c>
       <c r="R19">
-        <v>16.050296530000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="S19">
-        <v>3.0140381559999998</v>
+        <v>5.3129562449999996</v>
       </c>
       <c r="T19">
-        <v>50.622242980000003</v>
+        <v>0.86254555899999996</v>
       </c>
       <c r="U19">
-        <v>1.8608973470000001</v>
+        <v>543.93563349999999</v>
       </c>
       <c r="V19">
-        <v>2.4489999999999998</v>
+        <v>8.2759999999999998</v>
       </c>
       <c r="W19">
-        <v>0.17499999999999999</v>
+        <v>1.3533878660000001</v>
       </c>
       <c r="X19">
-        <v>5.3129562449999996</v>
+        <v>28.31913102</v>
       </c>
       <c r="Y19">
-        <v>35.953192090000002</v>
+        <v>182.1632864</v>
       </c>
       <c r="Z19">
-        <v>0.86254555899999996</v>
+        <v>0.38085286699999998</v>
       </c>
       <c r="AA19">
-        <v>80.925435930000006</v>
+        <v>3.2882564479999998</v>
       </c>
       <c r="AB19">
-        <v>543.93563349999999</v>
+        <v>0.153021241</v>
       </c>
       <c r="AC19">
-        <v>59.386162740000003</v>
+        <v>1.486006275</v>
       </c>
       <c r="AD19">
-        <v>8.2759999999999998</v>
+        <v>2080.29997</v>
       </c>
       <c r="AE19">
-        <v>1.5246134220000001</v>
+        <v>7.1409913000000005E-2</v>
       </c>
       <c r="AF19">
-        <v>1.3533878660000001</v>
-      </c>
-      <c r="AG19">
-        <v>40.137389779999999</v>
-      </c>
-      <c r="AH19">
-        <v>28.31913102</v>
-      </c>
-      <c r="AI19">
-        <v>36.48480919</v>
-      </c>
-      <c r="AJ19">
-        <v>182.1632864</v>
-      </c>
-      <c r="AK19">
-        <v>0.38085286699999998</v>
-      </c>
-      <c r="AL19">
-        <v>3.2882564479999998</v>
-      </c>
-      <c r="AM19">
-        <v>0.153021241</v>
-      </c>
-      <c r="AN19">
-        <v>1.486006275</v>
-      </c>
-      <c r="AO19">
-        <v>2080.29997</v>
-      </c>
-      <c r="AP19">
-        <v>7.1409913000000005E-2</v>
-      </c>
-      <c r="AQ19">
         <v>3.1284342629999999</v>
       </c>
-      <c r="AR19">
-        <v>88</v>
-      </c>
-      <c r="AS19">
-        <v>46.718287593500001</v>
-      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3296,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1">
         <v>44677</v>
@@ -3320,111 +2528,72 @@
         <v>0.20231974599999999</v>
       </c>
       <c r="L20">
-        <v>74.250032169999997</v>
+        <v>156.25</v>
       </c>
       <c r="M20">
-        <v>156.25</v>
+        <v>361.25</v>
       </c>
       <c r="N20">
-        <v>53.624726789999997</v>
+        <v>22.552019000000001</v>
       </c>
       <c r="O20">
-        <v>361.25</v>
+        <v>2.8492324760000001</v>
       </c>
       <c r="P20">
-        <v>28.882583</v>
+        <v>1.5079402019999999</v>
       </c>
       <c r="Q20">
-        <v>22.552019000000001</v>
+        <v>2.0409999999999999</v>
       </c>
       <c r="R20">
-        <v>31.941607359999999</v>
+        <v>0.155</v>
       </c>
       <c r="S20">
-        <v>2.8492324760000001</v>
+        <v>4.9678281259999997</v>
       </c>
       <c r="T20">
-        <v>43.348066420000002</v>
+        <v>0.69939960599999995</v>
       </c>
       <c r="U20">
-        <v>1.5079402019999999</v>
+        <v>477.15307940000002</v>
       </c>
       <c r="V20">
-        <v>2.0409999999999999</v>
+        <v>8.3209999999999997</v>
       </c>
       <c r="W20">
-        <v>0.155</v>
+        <v>2.3124436469999998</v>
       </c>
       <c r="X20">
-        <v>4.9678281259999997</v>
+        <v>32.403900059999998</v>
       </c>
       <c r="Y20">
-        <v>32.121837939999999</v>
+        <v>186.78672839999999</v>
       </c>
       <c r="Z20">
-        <v>0.69939960599999995</v>
+        <v>0.81149948199999999</v>
       </c>
       <c r="AA20">
-        <v>62.980314630000002</v>
+        <v>9.1673051270000006</v>
       </c>
       <c r="AB20">
-        <v>477.15307940000002</v>
+        <v>0.362865622</v>
       </c>
       <c r="AC20">
-        <v>45.08568271</v>
+        <v>1.702169646</v>
       </c>
       <c r="AD20">
-        <v>8.3209999999999997</v>
+        <v>2094.3581089999998</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>9.2365795000000001E-2</v>
       </c>
       <c r="AF20">
-        <v>2.3124436469999998</v>
-      </c>
-      <c r="AG20">
-        <v>66.748422099999999</v>
-      </c>
-      <c r="AH20">
-        <v>32.403900059999998</v>
-      </c>
-      <c r="AI20">
-        <v>44.755360240000002</v>
-      </c>
-      <c r="AJ20">
-        <v>186.78672839999999</v>
-      </c>
-      <c r="AK20">
-        <v>0.81149948199999999</v>
-      </c>
-      <c r="AL20">
-        <v>9.1673051270000006</v>
-      </c>
-      <c r="AM20">
-        <v>0.362865622</v>
-      </c>
-      <c r="AN20">
-        <v>1.702169646</v>
-      </c>
-      <c r="AO20">
-        <v>2094.3581089999998</v>
-      </c>
-      <c r="AP20">
-        <v>9.2365795000000001E-2</v>
-      </c>
-      <c r="AQ20">
         <v>3.2921808260000001</v>
       </c>
-      <c r="AR20">
-        <v>100</v>
-      </c>
-      <c r="AS20">
-        <v>48.644886113333335</v>
-      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3433,10 +2602,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1">
         <v>44677</v>
@@ -3457,111 +2626,72 @@
         <v>0.21200213100000001</v>
       </c>
       <c r="L21">
-        <v>78.815409930000001</v>
+        <v>193.75</v>
       </c>
       <c r="M21">
-        <v>193.75</v>
+        <v>394.375</v>
       </c>
       <c r="N21">
-        <v>36.34469163</v>
+        <v>14.76366032</v>
       </c>
       <c r="O21">
-        <v>394.375</v>
+        <v>3.192570371</v>
       </c>
       <c r="P21">
-        <v>19.545878160000001</v>
+        <v>1.9746783139999999</v>
       </c>
       <c r="Q21">
-        <v>14.76366032</v>
+        <v>2.1890000000000001</v>
       </c>
       <c r="R21">
-        <v>18.352342159999999</v>
+        <v>0.193</v>
       </c>
       <c r="S21">
-        <v>3.192570371</v>
+        <v>5.5001595029999999</v>
       </c>
       <c r="T21">
-        <v>58.471363510000003</v>
+        <v>0.68521300100000004</v>
       </c>
       <c r="U21">
-        <v>1.9746783139999999</v>
+        <v>540.22549170000002</v>
       </c>
       <c r="V21">
-        <v>2.1890000000000001</v>
+        <v>8.3140000000000001</v>
       </c>
       <c r="W21">
-        <v>0.193</v>
+        <v>2.5683290410000001</v>
       </c>
       <c r="X21">
-        <v>5.5001595029999999</v>
+        <v>37.976681999999997</v>
       </c>
       <c r="Y21">
-        <v>38.095180149999997</v>
+        <v>187.1789374</v>
       </c>
       <c r="Z21">
-        <v>0.68521300100000004</v>
+        <v>0.404750995</v>
       </c>
       <c r="AA21">
-        <v>61.18114156</v>
+        <v>6.0823035890000003</v>
       </c>
       <c r="AB21">
-        <v>540.22549170000002</v>
+        <v>0.27964614199999999</v>
       </c>
       <c r="AC21">
-        <v>58.606535630000003</v>
+        <v>1.6079653169999999</v>
       </c>
       <c r="AD21">
-        <v>8.3140000000000001</v>
+        <v>2479.732728</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>8.4629754000000001E-2</v>
       </c>
       <c r="AF21">
-        <v>2.5683290410000001</v>
-      </c>
-      <c r="AG21">
-        <v>73.913213150000004</v>
-      </c>
-      <c r="AH21">
-        <v>37.976681999999997</v>
-      </c>
-      <c r="AI21">
-        <v>55.158072279999999</v>
-      </c>
-      <c r="AJ21">
-        <v>187.1789374</v>
-      </c>
-      <c r="AK21">
-        <v>0.404750995</v>
-      </c>
-      <c r="AL21">
-        <v>6.0823035890000003</v>
-      </c>
-      <c r="AM21">
-        <v>0.27964614199999999</v>
-      </c>
-      <c r="AN21">
-        <v>1.6079653169999999</v>
-      </c>
-      <c r="AO21">
-        <v>2479.732728</v>
-      </c>
-      <c r="AP21">
-        <v>8.4629754000000001E-2</v>
-      </c>
-      <c r="AQ21">
         <v>3.8083389080000001</v>
       </c>
-      <c r="AR21">
-        <v>100</v>
-      </c>
-      <c r="AS21">
-        <v>49.873652346666667</v>
-      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3570,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1">
         <v>44677</v>
@@ -3594,111 +2724,72 @@
         <v>0.20908195500000001</v>
       </c>
       <c r="L22">
-        <v>77.490760890000004</v>
+        <v>143.75</v>
       </c>
       <c r="M22">
-        <v>143.75</v>
+        <v>328.125</v>
       </c>
       <c r="N22">
-        <v>59.395546510000003</v>
+        <v>12.729598859999999</v>
       </c>
       <c r="O22">
-        <v>328.125</v>
+        <v>2.8679912029999999</v>
       </c>
       <c r="P22">
-        <v>39.909826780000003</v>
+        <v>1.748354347</v>
       </c>
       <c r="Q22">
-        <v>12.729598859999999</v>
+        <v>2.028</v>
       </c>
       <c r="R22">
-        <v>15.50476022</v>
+        <v>0.17</v>
       </c>
       <c r="S22">
-        <v>2.8679912029999999</v>
+        <v>4.9228888450000001</v>
       </c>
       <c r="T22">
-        <v>44.169370739999998</v>
+        <v>0.64974648999999995</v>
       </c>
       <c r="U22">
-        <v>1.748354347</v>
+        <v>512.39942740000004</v>
       </c>
       <c r="V22">
-        <v>2.028</v>
+        <v>8.0640000000000001</v>
       </c>
       <c r="W22">
-        <v>0.17</v>
+        <v>1.1929301830000001</v>
       </c>
       <c r="X22">
-        <v>4.9228888450000001</v>
+        <v>29.74221313</v>
       </c>
       <c r="Y22">
-        <v>31.635625229999999</v>
+        <v>144.93777560000001</v>
       </c>
       <c r="Z22">
-        <v>0.64974648999999995</v>
+        <v>0.43762384399999998</v>
       </c>
       <c r="AA22">
-        <v>56.585133949999999</v>
+        <v>2.0454862650000001</v>
       </c>
       <c r="AB22">
-        <v>512.39942740000004</v>
+        <v>0.11994135</v>
       </c>
       <c r="AC22">
-        <v>52.671867450000001</v>
+        <v>1.2772132940000001</v>
       </c>
       <c r="AD22">
-        <v>8.0640000000000001</v>
+        <v>1384.4992110000001</v>
       </c>
       <c r="AE22">
-        <v>11.506967019999999</v>
+        <v>6.1591503999999998E-2</v>
       </c>
       <c r="AF22">
-        <v>1.1929301830000001</v>
-      </c>
-      <c r="AG22">
-        <v>35.910773949999999</v>
-      </c>
-      <c r="AH22">
-        <v>29.74221313</v>
-      </c>
-      <c r="AI22">
-        <v>39.050697380000003</v>
-      </c>
-      <c r="AJ22">
-        <v>144.93777560000001</v>
-      </c>
-      <c r="AK22">
-        <v>0.43762384399999998</v>
-      </c>
-      <c r="AL22">
-        <v>2.0454862650000001</v>
-      </c>
-      <c r="AM22">
-        <v>0.11994135</v>
-      </c>
-      <c r="AN22">
-        <v>1.2772132940000001</v>
-      </c>
-      <c r="AO22">
-        <v>1384.4992110000001</v>
-      </c>
-      <c r="AP22">
-        <v>6.1591503999999998E-2</v>
-      </c>
-      <c r="AQ22">
         <v>1.93526989</v>
       </c>
-      <c r="AR22">
-        <v>77</v>
-      </c>
-      <c r="AS22">
-        <v>45.069277510000006</v>
-      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3707,10 +2798,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1">
         <v>44677</v>
@@ -3731,111 +2822,72 @@
         <v>0.20073982100000001</v>
       </c>
       <c r="L23">
-        <v>73.459384170000007</v>
+        <v>162.5</v>
       </c>
       <c r="M23">
-        <v>162.5</v>
+        <v>337.5</v>
       </c>
       <c r="N23">
-        <v>50.702491770000002</v>
+        <v>14.70507929</v>
       </c>
       <c r="O23">
-        <v>337.5</v>
+        <v>2.820075873</v>
       </c>
       <c r="P23">
-        <v>36.658601040000001</v>
+        <v>1.7186591950000001</v>
       </c>
       <c r="Q23">
-        <v>14.70507929</v>
+        <v>1.9970000000000001</v>
       </c>
       <c r="R23">
-        <v>18.266028949999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="S23">
-        <v>2.820075873</v>
+        <v>4.9394277679999998</v>
       </c>
       <c r="T23">
-        <v>42.077325680000001</v>
+        <v>0.72067951299999999</v>
       </c>
       <c r="U23">
-        <v>1.7186591950000001</v>
+        <v>519.81971120000003</v>
       </c>
       <c r="V23">
-        <v>1.9970000000000001</v>
+        <v>8.3279999999999994</v>
       </c>
       <c r="W23">
-        <v>0.16400000000000001</v>
+        <v>1.6064097820000001</v>
       </c>
       <c r="X23">
-        <v>4.9394277679999998</v>
+        <v>43.337010020000001</v>
       </c>
       <c r="Y23">
-        <v>31.814202120000001</v>
+        <v>189.5723783</v>
       </c>
       <c r="Z23">
-        <v>0.72067951299999999</v>
+        <v>0.76514780100000002</v>
       </c>
       <c r="AA23">
-        <v>65.625551079999994</v>
+        <v>3.260891677</v>
       </c>
       <c r="AB23">
-        <v>519.81971120000003</v>
+        <v>0.13620432099999999</v>
       </c>
       <c r="AC23">
-        <v>54.26584939</v>
+        <v>2.3314974890000002</v>
       </c>
       <c r="AD23">
-        <v>8.3279999999999994</v>
+        <v>1720.5249659999999</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>5.2078122999999997E-2</v>
       </c>
       <c r="AF23">
-        <v>1.6064097820000001</v>
-      </c>
-      <c r="AG23">
-        <v>46.979473890000001</v>
-      </c>
-      <c r="AH23">
-        <v>43.337010020000001</v>
-      </c>
-      <c r="AI23">
-        <v>65.164196610000005</v>
-      </c>
-      <c r="AJ23">
-        <v>189.5723783</v>
-      </c>
-      <c r="AK23">
-        <v>0.76514780100000002</v>
-      </c>
-      <c r="AL23">
-        <v>3.260891677</v>
-      </c>
-      <c r="AM23">
-        <v>0.13620432099999999</v>
-      </c>
-      <c r="AN23">
-        <v>2.3314974890000002</v>
-      </c>
-      <c r="AO23">
-        <v>1720.5249659999999</v>
-      </c>
-      <c r="AP23">
-        <v>5.2078122999999997E-2</v>
-      </c>
-      <c r="AQ23">
         <v>2.3395095079999999</v>
       </c>
-      <c r="AR23">
-        <v>77</v>
-      </c>
-      <c r="AS23">
-        <v>46.834425391666663</v>
-      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3844,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1">
         <v>44677</v>
@@ -3868,111 +2920,72 @@
         <v>0.205224936</v>
       </c>
       <c r="L24">
-        <v>75.67130118</v>
+        <v>103.125</v>
       </c>
       <c r="M24">
-        <v>103.125</v>
+        <v>360</v>
       </c>
       <c r="N24">
-        <v>76.259136760000004</v>
+        <v>14.427334269999999</v>
       </c>
       <c r="O24">
-        <v>360</v>
+        <v>2.9506487180000001</v>
       </c>
       <c r="P24">
-        <v>29.27204673</v>
+        <v>1.8580596840000001</v>
       </c>
       <c r="Q24">
-        <v>14.427334269999999</v>
+        <v>2.0910000000000002</v>
       </c>
       <c r="R24">
-        <v>17.860258460000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="S24">
-        <v>2.9506487180000001</v>
+        <v>4.4030754720000003</v>
       </c>
       <c r="T24">
-        <v>47.813505480000003</v>
+        <v>0.933478582</v>
       </c>
       <c r="U24">
-        <v>1.8580596840000001</v>
+        <v>404.80531239999999</v>
       </c>
       <c r="V24">
-        <v>2.0910000000000002</v>
+        <v>8.2690000000000001</v>
       </c>
       <c r="W24">
-        <v>0.17499999999999999</v>
+        <v>1.4968852210000001</v>
       </c>
       <c r="X24">
-        <v>4.4030754720000003</v>
+        <v>40.254644020000001</v>
       </c>
       <c r="Y24">
-        <v>26.257345749999999</v>
+        <v>191.7871044</v>
       </c>
       <c r="Z24">
-        <v>0.933478582</v>
+        <v>1.195404825</v>
       </c>
       <c r="AA24">
-        <v>86.684389690000003</v>
+        <v>3.4950692399999999</v>
       </c>
       <c r="AB24">
-        <v>404.80531239999999</v>
+        <v>0.14723461199999999</v>
       </c>
       <c r="AC24">
-        <v>30.342820679999999</v>
+        <v>2.488966059</v>
       </c>
       <c r="AD24">
-        <v>8.2690000000000001</v>
+        <v>2416.3303169999999</v>
       </c>
       <c r="AE24">
-        <v>1.651089818</v>
+        <v>6.6606133999999997E-2</v>
       </c>
       <c r="AF24">
-        <v>1.4968852210000001</v>
-      </c>
-      <c r="AG24">
-        <v>43.917253610000003</v>
-      </c>
-      <c r="AH24">
-        <v>40.254644020000001</v>
-      </c>
-      <c r="AI24">
-        <v>59.410343990000001</v>
-      </c>
-      <c r="AJ24">
-        <v>191.7871044</v>
-      </c>
-      <c r="AK24">
-        <v>1.195404825</v>
-      </c>
-      <c r="AL24">
-        <v>3.4950692399999999</v>
-      </c>
-      <c r="AM24">
-        <v>0.14723461199999999</v>
-      </c>
-      <c r="AN24">
-        <v>2.488966059</v>
-      </c>
-      <c r="AO24">
-        <v>2416.3303169999999</v>
-      </c>
-      <c r="AP24">
-        <v>6.6606133999999997E-2</v>
-      </c>
-      <c r="AQ24">
         <v>2.2015080070000002</v>
       </c>
-      <c r="AR24">
-        <v>77</v>
-      </c>
-      <c r="AS24">
-        <v>47.678291012333339</v>
-      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3981,10 +2994,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1">
         <v>44677</v>
@@ -4005,111 +3018,72 @@
         <v>0.21783487600000001</v>
       </c>
       <c r="L25">
-        <v>81.320458389999999</v>
+        <v>143.75</v>
       </c>
       <c r="M25">
-        <v>143.75</v>
+        <v>352.5</v>
       </c>
       <c r="N25">
-        <v>59.395546510000003</v>
+        <v>15.26496392</v>
       </c>
       <c r="O25">
-        <v>352.5</v>
+        <v>3.1043337329999998</v>
       </c>
       <c r="P25">
-        <v>31.658396440000001</v>
+        <v>1.740963993</v>
       </c>
       <c r="Q25">
-        <v>15.26496392</v>
+        <v>2.145</v>
       </c>
       <c r="R25">
-        <v>19.101320229999999</v>
+        <v>0.16</v>
       </c>
       <c r="S25">
-        <v>3.1043337329999998</v>
+        <v>4.8458595000000004</v>
       </c>
       <c r="T25">
-        <v>54.614455200000002</v>
+        <v>0.42276081700000001</v>
       </c>
       <c r="U25">
-        <v>1.740963993</v>
+        <v>456.747299</v>
       </c>
       <c r="V25">
-        <v>2.145</v>
+        <v>8.3209999999999997</v>
       </c>
       <c r="W25">
-        <v>0.16</v>
+        <v>2.0146283239999998</v>
       </c>
       <c r="X25">
-        <v>4.8458595000000004</v>
+        <v>35.548661269999997</v>
       </c>
       <c r="Y25">
-        <v>30.809594199999999</v>
+        <v>163.9233644</v>
       </c>
       <c r="Z25">
-        <v>0.42276081700000001</v>
+        <v>0.50365708099999995</v>
       </c>
       <c r="AA25">
-        <v>27.73281295</v>
+        <v>3.9475825269999998</v>
       </c>
       <c r="AB25">
-        <v>456.747299</v>
+        <v>0.36753354599999999</v>
       </c>
       <c r="AC25">
-        <v>40.757075209999996</v>
+        <v>1.766202872</v>
       </c>
       <c r="AD25">
-        <v>8.3209999999999997</v>
+        <v>2795.4091020000001</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>8.8480297999999999E-2</v>
       </c>
       <c r="AF25">
-        <v>2.0146283239999998</v>
-      </c>
-      <c r="AG25">
-        <v>58.40959307</v>
-      </c>
-      <c r="AH25">
-        <v>35.548661269999997</v>
-      </c>
-      <c r="AI25">
-        <v>50.625686000000002</v>
-      </c>
-      <c r="AJ25">
-        <v>163.9233644</v>
-      </c>
-      <c r="AK25">
-        <v>0.50365708099999995</v>
-      </c>
-      <c r="AL25">
-        <v>3.9475825269999998</v>
-      </c>
-      <c r="AM25">
-        <v>0.36753354599999999</v>
-      </c>
-      <c r="AN25">
-        <v>1.766202872</v>
-      </c>
-      <c r="AO25">
-        <v>2795.4091020000001</v>
-      </c>
-      <c r="AP25">
-        <v>8.8480297999999999E-2</v>
-      </c>
-      <c r="AQ25">
         <v>3.0866011649999998</v>
       </c>
-      <c r="AR25">
-        <v>100</v>
-      </c>
-      <c r="AS25">
-        <v>46.202078183333327</v>
-      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4118,10 +3092,10 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F26" s="1">
         <v>44677</v>
@@ -4142,111 +3116,72 @@
         <v>0.214684822</v>
       </c>
       <c r="L26">
-        <v>79.991144230000003</v>
+        <v>143.75</v>
       </c>
       <c r="M26">
-        <v>143.75</v>
+        <v>337.5</v>
       </c>
       <c r="N26">
-        <v>59.395546510000003</v>
+        <v>15.35731277</v>
       </c>
       <c r="O26">
-        <v>337.5</v>
+        <v>3.1625892250000001</v>
       </c>
       <c r="P26">
-        <v>36.658601040000001</v>
+        <v>1.978261512</v>
       </c>
       <c r="Q26">
-        <v>15.35731277</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="R26">
-        <v>19.241312409999999</v>
+        <v>0.192</v>
       </c>
       <c r="S26">
-        <v>3.1625892250000001</v>
+        <v>5.2533141099999998</v>
       </c>
       <c r="T26">
-        <v>57.16806888</v>
+        <v>0.81998574499999999</v>
       </c>
       <c r="U26">
-        <v>1.978261512</v>
+        <v>510.54435649999999</v>
       </c>
       <c r="V26">
-        <v>2.1339999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="W26">
-        <v>0.192</v>
+        <v>1.612411729</v>
       </c>
       <c r="X26">
-        <v>5.2533141099999998</v>
+        <v>30.930177919999998</v>
       </c>
       <c r="Y26">
-        <v>35.27956777</v>
+        <v>156.71137519999999</v>
       </c>
       <c r="Z26">
-        <v>0.81998574499999999</v>
+        <v>0.35976732300000003</v>
       </c>
       <c r="AA26">
-        <v>76.830793810000003</v>
+        <v>2.1782276089999999</v>
       </c>
       <c r="AB26">
-        <v>510.54435649999999</v>
+        <v>0.21913100599999999</v>
       </c>
       <c r="AC26">
-        <v>52.272601690000002</v>
+        <v>1.48485786</v>
       </c>
       <c r="AD26">
-        <v>8.19</v>
+        <v>1517.6424750000001</v>
       </c>
       <c r="AE26">
-        <v>3.813695482</v>
+        <v>5.2329792E-2</v>
       </c>
       <c r="AF26">
-        <v>1.612411729</v>
-      </c>
-      <c r="AG26">
-        <v>47.147528399999999</v>
-      </c>
-      <c r="AH26">
-        <v>30.930177919999998</v>
-      </c>
-      <c r="AI26">
-        <v>41.192657310000001</v>
-      </c>
-      <c r="AJ26">
-        <v>156.71137519999999</v>
-      </c>
-      <c r="AK26">
-        <v>0.35976732300000003</v>
-      </c>
-      <c r="AL26">
-        <v>2.1782276089999999</v>
-      </c>
-      <c r="AM26">
-        <v>0.21913100599999999</v>
-      </c>
-      <c r="AN26">
-        <v>1.48485786</v>
-      </c>
-      <c r="AO26">
-        <v>1517.6424750000001</v>
-      </c>
-      <c r="AP26">
-        <v>5.2329792E-2</v>
-      </c>
-      <c r="AQ26">
         <v>3.6336499600000001</v>
       </c>
-      <c r="AR26">
-        <v>88</v>
-      </c>
-      <c r="AS26">
-        <v>49.749293127666668</v>
-      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4255,10 +3190,10 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1">
         <v>44677</v>
@@ -4279,111 +3214,72 @@
         <v>0.21442586899999999</v>
       </c>
       <c r="L27">
-        <v>79.879393789999995</v>
+        <v>156.25</v>
       </c>
       <c r="M27">
-        <v>156.25</v>
+        <v>326.875</v>
       </c>
       <c r="N27">
-        <v>53.624726789999997</v>
+        <v>14.70108879</v>
       </c>
       <c r="O27">
-        <v>326.875</v>
+        <v>3.0293427560000001</v>
       </c>
       <c r="P27">
-        <v>40.349220150000001</v>
+        <v>1.6109366759999999</v>
       </c>
       <c r="Q27">
-        <v>14.70108879</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="R27">
-        <v>18.2601586</v>
+        <v>0.153</v>
       </c>
       <c r="S27">
-        <v>3.0293427560000001</v>
+        <v>4.6809503130000003</v>
       </c>
       <c r="T27">
-        <v>51.30044359</v>
+        <v>0.68521300100000004</v>
       </c>
       <c r="U27">
-        <v>1.6109366759999999</v>
+        <v>517.96464030000004</v>
       </c>
       <c r="V27">
-        <v>1.7010000000000001</v>
+        <v>8.2530000000000001</v>
       </c>
       <c r="W27">
-        <v>0.153</v>
+        <v>2.3944682180000001</v>
       </c>
       <c r="X27">
-        <v>4.6809503130000003</v>
+        <v>31.294075039999999</v>
       </c>
       <c r="Y27">
-        <v>29.073897580000001</v>
+        <v>134.59877979999999</v>
       </c>
       <c r="Z27">
-        <v>0.68521300100000004</v>
+        <v>0.39907803600000002</v>
       </c>
       <c r="AA27">
-        <v>61.18114156</v>
+        <v>2.3132399449999999</v>
       </c>
       <c r="AB27">
-        <v>517.96464030000004</v>
+        <v>0.15186155400000001</v>
       </c>
       <c r="AC27">
-        <v>53.867895689999997</v>
+        <v>1.6528187700000001</v>
       </c>
       <c r="AD27">
-        <v>8.2530000000000001</v>
+        <v>1338.299366</v>
       </c>
       <c r="AE27">
-        <v>1.9742765280000001</v>
+        <v>5.6506624999999998E-2</v>
       </c>
       <c r="AF27">
-        <v>2.3944682180000001</v>
-      </c>
-      <c r="AG27">
-        <v>69.045110100000002</v>
-      </c>
-      <c r="AH27">
-        <v>31.294075039999999</v>
-      </c>
-      <c r="AI27">
-        <v>41.848782010000001</v>
-      </c>
-      <c r="AJ27">
-        <v>134.59877979999999</v>
-      </c>
-      <c r="AK27">
-        <v>0.39907803600000002</v>
-      </c>
-      <c r="AL27">
-        <v>2.3132399449999999</v>
-      </c>
-      <c r="AM27">
-        <v>0.15186155400000001</v>
-      </c>
-      <c r="AN27">
-        <v>1.6528187700000001</v>
-      </c>
-      <c r="AO27">
-        <v>1338.299366</v>
-      </c>
-      <c r="AP27">
-        <v>5.6506624999999998E-2</v>
-      </c>
-      <c r="AQ27">
         <v>2.5110131309999999</v>
       </c>
-      <c r="AR27">
-        <v>88</v>
-      </c>
-      <c r="AS27">
-        <v>49.033753865666675</v>
-      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4392,10 +3288,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1">
         <v>44677</v>
@@ -4416,111 +3312,72 @@
         <v>0.20687502899999999</v>
       </c>
       <c r="L28">
-        <v>76.459270649999993</v>
+        <v>131.25</v>
       </c>
       <c r="M28">
-        <v>131.25</v>
+        <v>338.75</v>
       </c>
       <c r="N28">
-        <v>64.968861390000001</v>
+        <v>12.312297790000001</v>
       </c>
       <c r="O28">
-        <v>338.75</v>
+        <v>2.9474341700000002</v>
       </c>
       <c r="P28">
-        <v>36.231686969999998</v>
+        <v>1.7592975719999999</v>
       </c>
       <c r="Q28">
-        <v>12.312297790000001</v>
+        <v>1.887</v>
       </c>
       <c r="R28">
-        <v>14.95871548</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="S28">
-        <v>2.9474341700000002</v>
+        <v>4.9141254600000002</v>
       </c>
       <c r="T28">
-        <v>47.671242759999998</v>
+        <v>0.91219867499999996</v>
       </c>
       <c r="U28">
-        <v>1.7592975719999999</v>
+        <v>504.97914359999999</v>
       </c>
       <c r="V28">
-        <v>1.887</v>
+        <v>8.1590000000000007</v>
       </c>
       <c r="W28">
-        <v>0.16500000000000001</v>
+        <v>1.224720381</v>
       </c>
       <c r="X28">
-        <v>4.9141254600000002</v>
+        <v>30.157946169999999</v>
       </c>
       <c r="Y28">
-        <v>31.541176650000001</v>
+        <v>143.80945919999999</v>
       </c>
       <c r="Z28">
-        <v>0.91219867499999996</v>
+        <v>0.42833484799999999</v>
       </c>
       <c r="AA28">
-        <v>85.098383519999999</v>
+        <v>2.5192434779999999</v>
       </c>
       <c r="AB28">
-        <v>504.97914359999999</v>
+        <v>0.17450678999999999</v>
       </c>
       <c r="AC28">
-        <v>51.0735952</v>
+        <v>1.6213267220000001</v>
       </c>
       <c r="AD28">
-        <v>8.1590000000000007</v>
+        <v>1344.40031</v>
       </c>
       <c r="AE28">
-        <v>5.1358896969999996</v>
+        <v>5.3938462E-2</v>
       </c>
       <c r="AF28">
-        <v>1.224720381</v>
-      </c>
-      <c r="AG28">
-        <v>36.748159559999998</v>
-      </c>
-      <c r="AH28">
-        <v>30.157946169999999</v>
-      </c>
-      <c r="AI28">
-        <v>39.800284840000003</v>
-      </c>
-      <c r="AJ28">
-        <v>143.80945919999999</v>
-      </c>
-      <c r="AK28">
-        <v>0.42833484799999999</v>
-      </c>
-      <c r="AL28">
-        <v>2.5192434779999999</v>
-      </c>
-      <c r="AM28">
-        <v>0.17450678999999999</v>
-      </c>
-      <c r="AN28">
-        <v>1.6213267220000001</v>
-      </c>
-      <c r="AO28">
-        <v>1344.40031</v>
-      </c>
-      <c r="AP28">
-        <v>5.3938462E-2</v>
-      </c>
-      <c r="AQ28">
         <v>3.0776652059999998</v>
       </c>
-      <c r="AR28">
-        <v>88</v>
-      </c>
-      <c r="AS28">
-        <v>48.140605559750007</v>
-      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4529,10 +3386,10 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1">
         <v>44677</v>
@@ -4553,111 +3410,72 @@
         <v>0.197628687</v>
       </c>
       <c r="L29">
-        <v>71.867264700000007</v>
+        <v>146.875</v>
       </c>
       <c r="M29">
-        <v>146.875</v>
+        <v>337.5</v>
       </c>
       <c r="N29">
-        <v>57.966824619999997</v>
+        <v>18.272039960000001</v>
       </c>
       <c r="O29">
-        <v>337.5</v>
+        <v>2.8785067369999999</v>
       </c>
       <c r="P29">
-        <v>36.658601040000001</v>
+        <v>1.497010105</v>
       </c>
       <c r="Q29">
-        <v>18.272039960000001</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="R29">
-        <v>23.974940549999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="S29">
-        <v>2.8785067369999999</v>
+        <v>4.4633658589999996</v>
       </c>
       <c r="T29">
-        <v>44.630889629999999</v>
+        <v>0.69939960599999995</v>
       </c>
       <c r="U29">
-        <v>1.497010105</v>
+        <v>475.29800840000001</v>
       </c>
       <c r="V29">
-        <v>1.6870000000000001</v>
+        <v>8.2590000000000003</v>
       </c>
       <c r="W29">
-        <v>0.14399999999999999</v>
+        <v>1.332619376</v>
       </c>
       <c r="X29">
-        <v>4.4633658589999996</v>
+        <v>29.540380840000001</v>
       </c>
       <c r="Y29">
-        <v>26.85639845</v>
+        <v>154.99809300000001</v>
       </c>
       <c r="Z29">
-        <v>0.69939960599999995</v>
+        <v>0.39470544600000002</v>
       </c>
       <c r="AA29">
-        <v>62.980314630000002</v>
+        <v>2.1298462169999999</v>
       </c>
       <c r="AB29">
-        <v>475.29800840000001</v>
+        <v>0.16413493800000001</v>
       </c>
       <c r="AC29">
-        <v>44.688938229999998</v>
+        <v>1.774220519</v>
       </c>
       <c r="AD29">
-        <v>8.2590000000000003</v>
+        <v>1690.5077920000001</v>
       </c>
       <c r="AE29">
-        <v>1.8472848150000001</v>
+        <v>7.8159493999999996E-2</v>
       </c>
       <c r="AF29">
-        <v>1.332619376</v>
-      </c>
-      <c r="AG29">
-        <v>39.590326990000001</v>
-      </c>
-      <c r="AH29">
-        <v>29.540380840000001</v>
-      </c>
-      <c r="AI29">
-        <v>38.686783669999997</v>
-      </c>
-      <c r="AJ29">
-        <v>154.99809300000001</v>
-      </c>
-      <c r="AK29">
-        <v>0.39470544600000002</v>
-      </c>
-      <c r="AL29">
-        <v>2.1298462169999999</v>
-      </c>
-      <c r="AM29">
-        <v>0.16413493800000001</v>
-      </c>
-      <c r="AN29">
-        <v>1.774220519</v>
-      </c>
-      <c r="AO29">
-        <v>1690.5077920000001</v>
-      </c>
-      <c r="AP29">
-        <v>7.8159493999999996E-2</v>
-      </c>
-      <c r="AQ29">
         <v>2.3252449529999999</v>
       </c>
-      <c r="AR29">
-        <v>77</v>
-      </c>
-      <c r="AS29">
-        <v>43.895713943750003</v>
-      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4666,10 +3484,10 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1">
         <v>44677</v>
@@ -4690,111 +3508,72 @@
         <v>0.21011155500000001</v>
       </c>
       <c r="L30">
-        <v>77.963082589999999</v>
+        <v>122.5</v>
       </c>
       <c r="M30">
-        <v>122.5</v>
+        <v>310</v>
       </c>
       <c r="N30">
-        <v>68.694296179999995</v>
+        <v>9.6655770249999993</v>
       </c>
       <c r="O30">
-        <v>310</v>
+        <v>2.793956723</v>
       </c>
       <c r="P30">
-        <v>46.378241330000002</v>
+        <v>1.742374248</v>
       </c>
       <c r="Q30">
-        <v>9.6655770249999993</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="R30">
-        <v>11.79601538</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="S30">
-        <v>2.793956723</v>
+        <v>4.8293252720000002</v>
       </c>
       <c r="T30">
-        <v>40.945895120000003</v>
+        <v>0.75614602399999997</v>
       </c>
       <c r="U30">
-        <v>1.742374248</v>
+        <v>490.138576</v>
       </c>
       <c r="V30">
-        <v>1.9379999999999999</v>
+        <v>8.3279999999999994</v>
       </c>
       <c r="W30">
-        <v>0.16300000000000001</v>
+        <v>1.322986266</v>
       </c>
       <c r="X30">
-        <v>4.8293252720000002</v>
+        <v>30.24981884</v>
       </c>
       <c r="Y30">
-        <v>30.633529070000002</v>
+        <v>152.4548929</v>
       </c>
       <c r="Z30">
-        <v>0.75614602399999997</v>
+        <v>0.373149972</v>
       </c>
       <c r="AA30">
-        <v>69.863781900000006</v>
+        <v>3.2041555490000002</v>
       </c>
       <c r="AB30">
-        <v>490.138576</v>
+        <v>0.120271479</v>
       </c>
       <c r="AC30">
-        <v>47.874445039999998</v>
+        <v>1.526522615</v>
       </c>
       <c r="AD30">
-        <v>8.3279999999999994</v>
+        <v>1657.73263</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>7.0929333999999997E-2</v>
       </c>
       <c r="AF30">
-        <v>1.322986266</v>
-      </c>
-      <c r="AG30">
-        <v>39.336581240000001</v>
-      </c>
-      <c r="AH30">
-        <v>30.24981884</v>
-      </c>
-      <c r="AI30">
-        <v>39.965935870000003</v>
-      </c>
-      <c r="AJ30">
-        <v>152.4548929</v>
-      </c>
-      <c r="AK30">
-        <v>0.373149972</v>
-      </c>
-      <c r="AL30">
-        <v>3.2041555490000002</v>
-      </c>
-      <c r="AM30">
-        <v>0.120271479</v>
-      </c>
-      <c r="AN30">
-        <v>1.526522615</v>
-      </c>
-      <c r="AO30">
-        <v>1657.73263</v>
-      </c>
-      <c r="AP30">
-        <v>7.0929333999999997E-2</v>
-      </c>
-      <c r="AQ30">
         <v>3.0746324180000002</v>
       </c>
-      <c r="AR30">
-        <v>88</v>
-      </c>
-      <c r="AS30">
-        <v>46.787650310000004</v>
-      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4803,10 +3582,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1">
         <v>44677</v>
@@ -4827,111 +3606,72 @@
         <v>0.217341173</v>
       </c>
       <c r="L31">
-        <v>81.115807219999994</v>
+        <v>148.75</v>
       </c>
       <c r="M31">
-        <v>148.75</v>
+        <v>345</v>
       </c>
       <c r="N31">
-        <v>57.10439624</v>
+        <v>14.35188396</v>
       </c>
       <c r="O31">
-        <v>345</v>
+        <v>3.1851663939999999</v>
       </c>
       <c r="P31">
-        <v>34.12364737</v>
+        <v>1.8214243640000001</v>
       </c>
       <c r="Q31">
-        <v>14.35188396</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="R31">
-        <v>17.751017659999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="S31">
-        <v>3.1851663939999999</v>
+        <v>5.2913303579999997</v>
       </c>
       <c r="T31">
-        <v>58.150316519999997</v>
+        <v>0.55044025799999996</v>
       </c>
       <c r="U31">
-        <v>1.8214243640000001</v>
+        <v>510.54435649999999</v>
       </c>
       <c r="V31">
-        <v>2.0590000000000002</v>
+        <v>8.3320000000000007</v>
       </c>
       <c r="W31">
-        <v>0.17699999999999999</v>
+        <v>1.907717058</v>
       </c>
       <c r="X31">
-        <v>5.2913303579999997</v>
+        <v>29.499449850000001</v>
       </c>
       <c r="Y31">
-        <v>35.7084221</v>
+        <v>147.11798150000001</v>
       </c>
       <c r="Z31">
-        <v>0.55044025799999996</v>
+        <v>0.40202387299999998</v>
       </c>
       <c r="AA31">
-        <v>43.439362090000003</v>
+        <v>2.4538626969999999</v>
       </c>
       <c r="AB31">
-        <v>510.54435649999999</v>
+        <v>0.18963390199999999</v>
       </c>
       <c r="AC31">
-        <v>52.272601690000002</v>
+        <v>1.7067051209999999</v>
       </c>
       <c r="AD31">
-        <v>8.3320000000000007</v>
+        <v>1639.737805</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.16308515600000001</v>
       </c>
       <c r="AF31">
-        <v>1.907717058</v>
-      </c>
-      <c r="AG31">
-        <v>55.416077620000003</v>
-      </c>
-      <c r="AH31">
-        <v>29.499449850000001</v>
-      </c>
-      <c r="AI31">
-        <v>38.612983059999998</v>
-      </c>
-      <c r="AJ31">
-        <v>147.11798150000001</v>
-      </c>
-      <c r="AK31">
-        <v>0.40202387299999998</v>
-      </c>
-      <c r="AL31">
-        <v>2.4538626969999999</v>
-      </c>
-      <c r="AM31">
-        <v>0.18963390199999999</v>
-      </c>
-      <c r="AN31">
-        <v>1.7067051209999999</v>
-      </c>
-      <c r="AO31">
-        <v>1639.737805</v>
-      </c>
-      <c r="AP31">
-        <v>0.16308515600000001</v>
-      </c>
-      <c r="AQ31">
         <v>2.5486796479999998</v>
       </c>
-      <c r="AR31">
-        <v>88</v>
-      </c>
-      <c r="AS31">
-        <v>46.807885964166665</v>
-      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4940,10 +3680,10 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F32" s="1">
         <v>44677</v>
@@ -4964,111 +3704,72 @@
         <v>0.20481833899999999</v>
       </c>
       <c r="L32">
-        <v>75.474972170000001</v>
+        <v>150.625</v>
       </c>
       <c r="M32">
-        <v>150.625</v>
+        <v>376.25</v>
       </c>
       <c r="N32">
-        <v>56.238562539999997</v>
+        <v>13.36257473</v>
       </c>
       <c r="O32">
-        <v>376.25</v>
+        <v>2.6004370720000001</v>
       </c>
       <c r="P32">
-        <v>24.409772839999999</v>
+        <v>1.5022205019999999</v>
       </c>
       <c r="Q32">
-        <v>13.36257473</v>
+        <v>2.39</v>
       </c>
       <c r="R32">
-        <v>16.357836549999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="S32">
-        <v>2.6004370720000001</v>
+        <v>4.510461662</v>
       </c>
       <c r="T32">
-        <v>32.853618249999997</v>
+        <v>0.69230630400000004</v>
       </c>
       <c r="U32">
-        <v>1.5022205019999999</v>
+        <v>421.50095090000002</v>
       </c>
       <c r="V32">
-        <v>2.39</v>
+        <v>8.2789999999999999</v>
       </c>
       <c r="W32">
-        <v>0.14399999999999999</v>
+        <v>1.118100817</v>
       </c>
       <c r="X32">
-        <v>4.510461662</v>
+        <v>37.168092110000003</v>
       </c>
       <c r="Y32">
-        <v>27.329079960000001</v>
+        <v>174.94295940000001</v>
       </c>
       <c r="Z32">
-        <v>0.69230630400000004</v>
+        <v>0.59568334099999998</v>
       </c>
       <c r="AA32">
-        <v>62.084000209999999</v>
+        <v>6.3805012420000002</v>
       </c>
       <c r="AB32">
-        <v>421.50095090000002</v>
+        <v>0.15608814800000001</v>
       </c>
       <c r="AC32">
-        <v>33.566652509999997</v>
+        <v>2.510152261</v>
       </c>
       <c r="AD32">
-        <v>8.2789999999999999</v>
+        <v>5172.570103</v>
       </c>
       <c r="AE32">
-        <v>1.4730112399999999</v>
+        <v>6.0523976E-2</v>
       </c>
       <c r="AF32">
-        <v>1.118100817</v>
-      </c>
-      <c r="AG32">
-        <v>33.939693609999999</v>
-      </c>
-      <c r="AH32">
-        <v>37.168092110000003</v>
-      </c>
-      <c r="AI32">
-        <v>53.648677540000001</v>
-      </c>
-      <c r="AJ32">
-        <v>174.94295940000001</v>
-      </c>
-      <c r="AK32">
-        <v>0.59568334099999998</v>
-      </c>
-      <c r="AL32">
-        <v>6.3805012420000002</v>
-      </c>
-      <c r="AM32">
-        <v>0.15608814800000001</v>
-      </c>
-      <c r="AN32">
-        <v>2.510152261</v>
-      </c>
-      <c r="AO32">
-        <v>5172.570103</v>
-      </c>
-      <c r="AP32">
-        <v>6.0523976E-2</v>
-      </c>
-      <c r="AQ32">
         <v>4.2143800020000004</v>
       </c>
-      <c r="AR32">
-        <v>88</v>
-      </c>
-      <c r="AS32">
-        <v>42.114656451666669</v>
-      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5077,10 +3778,10 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F33" s="1">
         <v>44677</v>
@@ -5101,111 +3802,72 @@
         <v>0.194398662</v>
       </c>
       <c r="L33">
-        <v>70.167017509999994</v>
+        <v>208.125</v>
       </c>
       <c r="M33">
-        <v>208.125</v>
+        <v>360</v>
       </c>
       <c r="N33">
-        <v>30.222192660000001</v>
+        <v>19.265862729999998</v>
       </c>
       <c r="O33">
-        <v>360</v>
+        <v>2.774240882</v>
       </c>
       <c r="P33">
-        <v>29.27204673</v>
+        <v>1.659044132</v>
       </c>
       <c r="Q33">
-        <v>19.265862729999998</v>
+        <v>2.4590000000000001</v>
       </c>
       <c r="R33">
-        <v>25.72339667</v>
+        <v>0.151</v>
       </c>
       <c r="S33">
-        <v>2.774240882</v>
+        <v>4.8810741279999998</v>
       </c>
       <c r="T33">
-        <v>40.096756800000001</v>
+        <v>0.72777281500000002</v>
       </c>
       <c r="U33">
-        <v>1.659044132</v>
+        <v>471.58786650000002</v>
       </c>
       <c r="V33">
-        <v>2.4590000000000001</v>
+        <v>8.4410000000000007</v>
       </c>
       <c r="W33">
-        <v>0.151</v>
+        <v>2.6851492050000001</v>
       </c>
       <c r="X33">
-        <v>4.8810741279999998</v>
+        <v>45.100325980000001</v>
       </c>
       <c r="Y33">
-        <v>31.186049489999998</v>
+        <v>198.26412110000001</v>
       </c>
       <c r="Z33">
-        <v>0.72777281500000002</v>
+        <v>0.50054914100000003</v>
       </c>
       <c r="AA33">
-        <v>66.491306159999993</v>
+        <v>5.0394269429999996</v>
       </c>
       <c r="AB33">
-        <v>471.58786650000002</v>
+        <v>0.20785515199999999</v>
       </c>
       <c r="AC33">
-        <v>43.897080870000003</v>
+        <v>2.3627616219999998</v>
       </c>
       <c r="AD33">
-        <v>8.4410000000000007</v>
+        <v>4292.505819</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>7.6354954000000003E-2</v>
       </c>
       <c r="AF33">
-        <v>2.6851492050000001</v>
-      </c>
-      <c r="AG33">
-        <v>77.184177730000002</v>
-      </c>
-      <c r="AH33">
-        <v>45.100325980000001</v>
-      </c>
-      <c r="AI33">
-        <v>68.455778499999994</v>
-      </c>
-      <c r="AJ33">
-        <v>198.26412110000001</v>
-      </c>
-      <c r="AK33">
-        <v>0.50054914100000003</v>
-      </c>
-      <c r="AL33">
-        <v>5.0394269429999996</v>
-      </c>
-      <c r="AM33">
-        <v>0.20785515199999999</v>
-      </c>
-      <c r="AN33">
-        <v>2.3627616219999998</v>
-      </c>
-      <c r="AO33">
-        <v>4292.505819</v>
-      </c>
-      <c r="AP33">
-        <v>7.6354954000000003E-2</v>
-      </c>
-      <c r="AQ33">
         <v>3.6395861260000002</v>
       </c>
-      <c r="AR33">
-        <v>88</v>
-      </c>
-      <c r="AS33">
-        <v>47.55798359333334</v>
-      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5214,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1">
         <v>44677</v>
@@ -5238,111 +3900,72 @@
         <v>0.19255747600000001</v>
       </c>
       <c r="L34">
-        <v>69.177370569999994</v>
+        <v>269.375</v>
       </c>
       <c r="M34">
-        <v>269.375</v>
+        <v>360</v>
       </c>
       <c r="N34">
-        <v>10.802754670000001</v>
+        <v>20.322698219999999</v>
       </c>
       <c r="O34">
-        <v>360</v>
+        <v>2.7630290990000002</v>
       </c>
       <c r="P34">
-        <v>29.27204673</v>
+        <v>1.3950699129999999</v>
       </c>
       <c r="Q34">
-        <v>20.322698219999999</v>
+        <v>1.792</v>
       </c>
       <c r="R34">
-        <v>27.652919950000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="S34">
-        <v>2.7630290990000002</v>
+        <v>4.1851169429999997</v>
       </c>
       <c r="T34">
-        <v>39.615929430000001</v>
+        <v>0.82707904700000001</v>
       </c>
       <c r="U34">
-        <v>1.3950699129999999</v>
+        <v>425.21109280000002</v>
       </c>
       <c r="V34">
-        <v>1.792</v>
+        <v>8.2539999999999996</v>
       </c>
       <c r="W34">
-        <v>0.13800000000000001</v>
+        <v>1.392200004</v>
       </c>
       <c r="X34">
-        <v>4.1851169429999997</v>
+        <v>40.52255572</v>
       </c>
       <c r="Y34">
-        <v>24.150184500000002</v>
+        <v>170.0047845</v>
       </c>
       <c r="Z34">
-        <v>0.82707904700000001</v>
+        <v>0.48059507000000001</v>
       </c>
       <c r="AA34">
-        <v>77.54541467</v>
+        <v>4.0278443939999997</v>
       </c>
       <c r="AB34">
-        <v>425.21109280000002</v>
+        <v>0.198340822</v>
       </c>
       <c r="AC34">
-        <v>34.30091642</v>
+        <v>1.941451512</v>
       </c>
       <c r="AD34">
-        <v>8.2539999999999996</v>
+        <v>2828.6490819999999</v>
       </c>
       <c r="AE34">
-        <v>1.952610355</v>
+        <v>6.8656439E-2</v>
       </c>
       <c r="AF34">
-        <v>1.392200004</v>
-      </c>
-      <c r="AG34">
-        <v>41.159740290000002</v>
-      </c>
-      <c r="AH34">
-        <v>40.52255572</v>
-      </c>
-      <c r="AI34">
-        <v>59.91045476</v>
-      </c>
-      <c r="AJ34">
-        <v>170.0047845</v>
-      </c>
-      <c r="AK34">
-        <v>0.48059507000000001</v>
-      </c>
-      <c r="AL34">
-        <v>4.0278443939999997</v>
-      </c>
-      <c r="AM34">
-        <v>0.198340822</v>
-      </c>
-      <c r="AN34">
-        <v>1.941451512</v>
-      </c>
-      <c r="AO34">
-        <v>2828.6490819999999</v>
-      </c>
-      <c r="AP34">
-        <v>6.8656439E-2</v>
-      </c>
-      <c r="AQ34">
         <v>2.5364739790000002</v>
       </c>
-      <c r="AR34">
-        <v>88</v>
-      </c>
-      <c r="AS34">
-        <v>41.961695195416667</v>
-      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5351,10 +3974,10 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1">
         <v>44677</v>
@@ -5375,111 +3998,72 @@
         <v>0.20485244899999999</v>
       </c>
       <c r="L35">
-        <v>75.491475399999999</v>
+        <v>234.375</v>
       </c>
       <c r="M35">
-        <v>234.375</v>
+        <v>360</v>
       </c>
       <c r="N35">
-        <v>20.434770790000002</v>
+        <v>25.00762615</v>
       </c>
       <c r="O35">
-        <v>360</v>
+        <v>3.0390699410000002</v>
       </c>
       <c r="P35">
-        <v>29.27204673</v>
+        <v>1.831309809</v>
       </c>
       <c r="Q35">
-        <v>25.00762615</v>
+        <v>2.3039999999999998</v>
       </c>
       <c r="R35">
-        <v>36.960123920000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="S35">
-        <v>3.0390699410000002</v>
+        <v>4.6946221880000003</v>
       </c>
       <c r="T35">
-        <v>51.731306369999999</v>
+        <v>0.80579913999999997</v>
       </c>
       <c r="U35">
-        <v>1.831309809</v>
+        <v>441.90673140000001</v>
       </c>
       <c r="V35">
-        <v>2.3039999999999998</v>
+        <v>8.2919999999999998</v>
       </c>
       <c r="W35">
-        <v>0.17699999999999999</v>
+        <v>1.7768028730000001</v>
       </c>
       <c r="X35">
-        <v>4.6946221880000003</v>
+        <v>33.63183446</v>
       </c>
       <c r="Y35">
-        <v>29.216044830000001</v>
+        <v>162.4075694</v>
       </c>
       <c r="Z35">
-        <v>0.80579913999999997</v>
+        <v>0.40703651499999999</v>
       </c>
       <c r="AA35">
-        <v>75.364254239999994</v>
+        <v>3.2527526689999999</v>
       </c>
       <c r="AB35">
-        <v>441.90673140000001</v>
+        <v>0.27607693999999999</v>
       </c>
       <c r="AC35">
-        <v>37.67538098</v>
+        <v>1.7768028730000001</v>
       </c>
       <c r="AD35">
-        <v>8.2919999999999998</v>
+        <v>1740.109416</v>
       </c>
       <c r="AE35">
-        <v>1.266398055</v>
+        <v>8.1407303E-2</v>
       </c>
       <c r="AF35">
-        <v>1.7768028730000001</v>
-      </c>
-      <c r="AG35">
-        <v>51.750480439999997</v>
-      </c>
-      <c r="AH35">
-        <v>33.63183446</v>
-      </c>
-      <c r="AI35">
-        <v>47.047545380000003</v>
-      </c>
-      <c r="AJ35">
-        <v>162.4075694</v>
-      </c>
-      <c r="AK35">
-        <v>0.40703651499999999</v>
-      </c>
-      <c r="AL35">
-        <v>3.2527526689999999</v>
-      </c>
-      <c r="AM35">
-        <v>0.27607693999999999</v>
-      </c>
-      <c r="AN35">
-        <v>1.7768028730000001</v>
-      </c>
-      <c r="AO35">
-        <v>1740.109416</v>
-      </c>
-      <c r="AP35">
-        <v>8.1407303E-2</v>
-      </c>
-      <c r="AQ35">
         <v>3.6173158089999999</v>
       </c>
-      <c r="AR35">
-        <v>100</v>
-      </c>
-      <c r="AS35">
-        <v>46.350818927916663</v>
-      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5488,10 +4072,10 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F36" s="1">
         <v>44677</v>
@@ -5512,111 +4096,72 @@
         <v>0.20604837500000001</v>
       </c>
       <c r="L36">
-        <v>76.066289659999995</v>
+        <v>256.25</v>
       </c>
       <c r="M36">
-        <v>256.25</v>
+        <v>377.5</v>
       </c>
       <c r="N36">
-        <v>13.940405520000001</v>
+        <v>25.22969222</v>
       </c>
       <c r="O36">
-        <v>377.5</v>
+        <v>3.059358918</v>
       </c>
       <c r="P36">
-        <v>24.054657670000001</v>
+        <v>1.8301178600000001</v>
       </c>
       <c r="Q36">
-        <v>25.22969222</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="R36">
-        <v>37.426713159999998</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="S36">
-        <v>3.059358918</v>
+        <v>4.8881449190000001</v>
       </c>
       <c r="T36">
-        <v>52.629291670000001</v>
+        <v>0.80579913999999997</v>
       </c>
       <c r="U36">
-        <v>1.8301178600000001</v>
+        <v>477.15307940000002</v>
       </c>
       <c r="V36">
-        <v>2.0699999999999998</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="W36">
-        <v>0.17399999999999999</v>
+        <v>1.514701952</v>
       </c>
       <c r="X36">
-        <v>4.8881449190000001</v>
+        <v>25.77204562</v>
       </c>
       <c r="Y36">
-        <v>31.261877689999999</v>
+        <v>141.5011714</v>
       </c>
       <c r="Z36">
-        <v>0.80579913999999997</v>
+        <v>0.40908008899999998</v>
       </c>
       <c r="AA36">
-        <v>75.364254239999994</v>
+        <v>2.5650427210000002</v>
       </c>
       <c r="AB36">
-        <v>477.15307940000002</v>
+        <v>0.63757527400000003</v>
       </c>
       <c r="AC36">
-        <v>45.08568271</v>
+        <v>1.8279614799999999</v>
       </c>
       <c r="AD36">
-        <v>8.1859999999999999</v>
+        <v>1585.800808</v>
       </c>
       <c r="AE36">
-        <v>3.9668544209999999</v>
+        <v>7.0022717999999998E-2</v>
       </c>
       <c r="AF36">
-        <v>1.514701952</v>
-      </c>
-      <c r="AG36">
-        <v>44.411654650000003</v>
-      </c>
-      <c r="AH36">
-        <v>25.77204562</v>
-      </c>
-      <c r="AI36">
-        <v>31.892286850000001</v>
-      </c>
-      <c r="AJ36">
-        <v>141.5011714</v>
-      </c>
-      <c r="AK36">
-        <v>0.40908008899999998</v>
-      </c>
-      <c r="AL36">
-        <v>2.5650427210000002</v>
-      </c>
-      <c r="AM36">
-        <v>0.63757527400000003</v>
-      </c>
-      <c r="AN36">
-        <v>1.8279614799999999</v>
-      </c>
-      <c r="AO36">
-        <v>1585.800808</v>
-      </c>
-      <c r="AP36">
-        <v>7.0022717999999998E-2</v>
-      </c>
-      <c r="AQ36">
         <v>2.2075583189999999</v>
       </c>
-      <c r="AR36">
-        <v>88</v>
-      </c>
-      <c r="AS36">
-        <v>43.674997353416664</v>
-      </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5625,10 +4170,10 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F37" s="1">
         <v>44677</v>
@@ -5649,111 +4194,72 @@
         <v>0.20991048500000001</v>
       </c>
       <c r="L37">
-        <v>77.871292359999998</v>
+        <v>274.375</v>
       </c>
       <c r="M37">
-        <v>274.375</v>
+        <v>360</v>
       </c>
       <c r="N37">
-        <v>9.7524715470000007</v>
+        <v>22.539077979999998</v>
       </c>
       <c r="O37">
-        <v>360</v>
+        <v>3.6042739639999999</v>
       </c>
       <c r="P37">
-        <v>29.27204673</v>
+        <v>2.1275523399999998</v>
       </c>
       <c r="Q37">
-        <v>22.539077979999998</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="R37">
-        <v>31.91592108</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="S37">
-        <v>3.6042739639999999</v>
+        <v>6.2609962960000001</v>
       </c>
       <c r="T37">
-        <v>74.902206829999997</v>
+        <v>0.86963886099999999</v>
       </c>
       <c r="U37">
-        <v>2.1275523399999998</v>
+        <v>525.38492410000003</v>
       </c>
       <c r="V37">
-        <v>2.3069999999999999</v>
+        <v>8.2149999999999999</v>
       </c>
       <c r="W37">
-        <v>0.20799999999999999</v>
+        <v>1.3982930979999999</v>
       </c>
       <c r="X37">
-        <v>6.2609962960000001</v>
+        <v>33.967184779999997</v>
       </c>
       <c r="Y37">
-        <v>47.113169980000002</v>
+        <v>184.06450090000001</v>
       </c>
       <c r="Z37">
-        <v>0.86963886099999999</v>
+        <v>0.36280037100000001</v>
       </c>
       <c r="AA37">
-        <v>81.561938859999998</v>
+        <v>3.3559034360000002</v>
       </c>
       <c r="AB37">
-        <v>525.38492410000003</v>
+        <v>0.18895852699999999</v>
       </c>
       <c r="AC37">
-        <v>55.456989100000001</v>
+        <v>1.8820269270000001</v>
       </c>
       <c r="AD37">
-        <v>8.2149999999999999</v>
+        <v>1909.860518</v>
       </c>
       <c r="AE37">
-        <v>2.9622984630000002</v>
+        <v>6.4245898999999995E-2</v>
       </c>
       <c r="AF37">
-        <v>1.3982930979999999</v>
-      </c>
-      <c r="AG37">
-        <v>41.320238500000002</v>
-      </c>
-      <c r="AH37">
-        <v>33.967184779999997</v>
-      </c>
-      <c r="AI37">
-        <v>47.673543819999999</v>
-      </c>
-      <c r="AJ37">
-        <v>184.06450090000001</v>
-      </c>
-      <c r="AK37">
-        <v>0.36280037100000001</v>
-      </c>
-      <c r="AL37">
-        <v>3.3559034360000002</v>
-      </c>
-      <c r="AM37">
-        <v>0.18895852699999999</v>
-      </c>
-      <c r="AN37">
-        <v>1.8820269270000001</v>
-      </c>
-      <c r="AO37">
-        <v>1909.860518</v>
-      </c>
-      <c r="AP37">
-        <v>6.4245898999999995E-2</v>
-      </c>
-      <c r="AQ37">
         <v>3.3445659239999999</v>
       </c>
-      <c r="AR37">
-        <v>88</v>
-      </c>
-      <c r="AS37">
-        <v>48.983509772500007</v>
-      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -5762,10 +4268,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F38" s="1">
         <v>44677</v>
@@ -5786,111 +4292,72 @@
         <v>0.21156813499999999</v>
       </c>
       <c r="L38">
-        <v>78.621475939999996</v>
+        <v>184.375</v>
       </c>
       <c r="M38">
-        <v>184.375</v>
+        <v>337.5</v>
       </c>
       <c r="N38">
-        <v>40.547550620000003</v>
+        <v>8.7327376119999993</v>
       </c>
       <c r="O38">
-        <v>337.5</v>
+        <v>2.7143455909999998</v>
       </c>
       <c r="P38">
-        <v>36.658601040000001</v>
+        <v>1.5469197159999999</v>
       </c>
       <c r="Q38">
-        <v>8.7327376119999993</v>
+        <v>1.885</v>
       </c>
       <c r="R38">
-        <v>10.80305235</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="S38">
-        <v>2.7143455909999998</v>
+        <v>4.4898491290000004</v>
       </c>
       <c r="T38">
-        <v>37.547241020000001</v>
+        <v>0.54334695600000005</v>
       </c>
       <c r="U38">
-        <v>1.5469197159999999</v>
+        <v>462.31251179999998</v>
       </c>
       <c r="V38">
-        <v>1.885</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="W38">
-        <v>0.14699999999999999</v>
+        <v>1.084875091</v>
       </c>
       <c r="X38">
-        <v>4.4898491290000004</v>
+        <v>40.684370170000001</v>
       </c>
       <c r="Y38">
-        <v>27.12169407</v>
+        <v>171.5097371</v>
       </c>
       <c r="Z38">
-        <v>0.54334695600000005</v>
+        <v>0.60616230000000004</v>
       </c>
       <c r="AA38">
-        <v>42.510774589999997</v>
+        <v>5.9528246380000001</v>
       </c>
       <c r="AB38">
-        <v>462.31251179999998</v>
+        <v>0.25800754300000001</v>
       </c>
       <c r="AC38">
-        <v>41.928765949999999</v>
+        <v>3.009051828</v>
       </c>
       <c r="AD38">
-        <v>8.1300000000000008</v>
+        <v>3666.8778069999998</v>
       </c>
       <c r="AE38">
-        <v>6.6807201269999998</v>
+        <v>4.6627869000000002E-2</v>
       </c>
       <c r="AF38">
-        <v>1.084875091</v>
-      </c>
-      <c r="AG38">
-        <v>33.064494770000003</v>
-      </c>
-      <c r="AH38">
-        <v>40.684370170000001</v>
-      </c>
-      <c r="AI38">
-        <v>60.212513790000003</v>
-      </c>
-      <c r="AJ38">
-        <v>171.5097371</v>
-      </c>
-      <c r="AK38">
-        <v>0.60616230000000004</v>
-      </c>
-      <c r="AL38">
-        <v>5.9528246380000001</v>
-      </c>
-      <c r="AM38">
-        <v>0.25800754300000001</v>
-      </c>
-      <c r="AN38">
-        <v>3.009051828</v>
-      </c>
-      <c r="AO38">
-        <v>3666.8778069999998</v>
-      </c>
-      <c r="AP38">
-        <v>4.6627869000000002E-2</v>
-      </c>
-      <c r="AQ38">
         <v>3.6400823249999998</v>
       </c>
-      <c r="AR38">
-        <v>100</v>
-      </c>
-      <c r="AS38">
-        <v>42.974740355583329</v>
-      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -5899,10 +4366,10 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F39" s="1">
         <v>44677</v>
@@ -5923,111 +4390,72 @@
         <v>0.209406961</v>
       </c>
       <c r="L39">
-        <v>77.640471210000001</v>
+        <v>181.25</v>
       </c>
       <c r="M39">
-        <v>181.25</v>
+        <v>338.75</v>
       </c>
       <c r="N39">
-        <v>41.975811129999997</v>
+        <v>6.7838169190000004</v>
       </c>
       <c r="O39">
-        <v>338.75</v>
+        <v>2.7183597229999998</v>
       </c>
       <c r="P39">
-        <v>36.231686969999998</v>
+        <v>1.6202181950000001</v>
       </c>
       <c r="Q39">
-        <v>6.7838169190000004</v>
+        <v>1.776</v>
       </c>
       <c r="R39">
-        <v>8.9257165260000004</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S39">
-        <v>2.7183597229999998</v>
+        <v>4.5499641210000004</v>
       </c>
       <c r="T39">
-        <v>37.716553900000001</v>
+        <v>0.42985411899999998</v>
       </c>
       <c r="U39">
-        <v>1.6202181950000001</v>
+        <v>475.29800840000001</v>
       </c>
       <c r="V39">
-        <v>1.776</v>
+        <v>8.202</v>
       </c>
       <c r="W39">
-        <v>0.14599999999999999</v>
+        <v>1.219743338</v>
       </c>
       <c r="X39">
-        <v>4.5499641210000004</v>
+        <v>28.493466699999999</v>
       </c>
       <c r="Y39">
-        <v>27.728702460000001</v>
+        <v>133.71272400000001</v>
       </c>
       <c r="Z39">
-        <v>0.42985411899999998</v>
+        <v>0.485274231</v>
       </c>
       <c r="AA39">
-        <v>28.530513989999999</v>
+        <v>3.1641191439999998</v>
       </c>
       <c r="AB39">
-        <v>475.29800840000001</v>
+        <v>0.21312719599999999</v>
       </c>
       <c r="AC39">
-        <v>44.688938229999998</v>
+        <v>2.4034189979999998</v>
       </c>
       <c r="AD39">
-        <v>8.202</v>
+        <v>1533.886268</v>
       </c>
       <c r="AE39">
-        <v>3.382938684</v>
+        <v>5.5740959E-2</v>
       </c>
       <c r="AF39">
-        <v>1.219743338</v>
-      </c>
-      <c r="AG39">
-        <v>36.617059279999999</v>
-      </c>
-      <c r="AH39">
-        <v>28.493466699999999</v>
-      </c>
-      <c r="AI39">
-        <v>36.799145129999999</v>
-      </c>
-      <c r="AJ39">
-        <v>133.71272400000001</v>
-      </c>
-      <c r="AK39">
-        <v>0.485274231</v>
-      </c>
-      <c r="AL39">
-        <v>3.1641191439999998</v>
-      </c>
-      <c r="AM39">
-        <v>0.21312719599999999</v>
-      </c>
-      <c r="AN39">
-        <v>2.4034189979999998</v>
-      </c>
-      <c r="AO39">
-        <v>1533.886268</v>
-      </c>
-      <c r="AP39">
-        <v>5.5740959E-2</v>
-      </c>
-      <c r="AQ39">
         <v>3.183792424</v>
       </c>
-      <c r="AR39">
-        <v>88</v>
-      </c>
-      <c r="AS39">
-        <v>39.019794792500001</v>
-      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -6036,10 +4464,10 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F40" s="1">
         <v>44677</v>
@@ -6060,111 +4488,72 @@
         <v>0.21171780600000001</v>
       </c>
       <c r="L40">
-        <v>78.688473639999998</v>
+        <v>131.25</v>
       </c>
       <c r="M40">
-        <v>131.25</v>
+        <v>346.875</v>
       </c>
       <c r="N40">
-        <v>64.968861390000001</v>
+        <v>4.0660736980000003</v>
       </c>
       <c r="O40">
-        <v>346.875</v>
+        <v>2.899812238</v>
       </c>
       <c r="P40">
-        <v>33.500424219999999</v>
+        <v>1.8365439530000001</v>
       </c>
       <c r="Q40">
-        <v>4.0660736980000003</v>
+        <v>1.956</v>
       </c>
       <c r="R40">
-        <v>6.7283939630000003</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="S40">
-        <v>2.899812238</v>
+        <v>5.3227947110000002</v>
       </c>
       <c r="T40">
-        <v>45.568140309999997</v>
+        <v>0.47241393300000001</v>
       </c>
       <c r="U40">
-        <v>1.8365439530000001</v>
+        <v>543.93563349999999</v>
       </c>
       <c r="V40">
-        <v>1.956</v>
+        <v>7.9720000000000004</v>
       </c>
       <c r="W40">
-        <v>0.16600000000000001</v>
+        <v>1.624678193</v>
       </c>
       <c r="X40">
-        <v>5.3227947110000002</v>
+        <v>30.202351029999999</v>
       </c>
       <c r="Y40">
-        <v>36.064739320000001</v>
+        <v>121.64257240000001</v>
       </c>
       <c r="Z40">
-        <v>0.47241393300000001</v>
+        <v>0.44862908699999998</v>
       </c>
       <c r="AA40">
-        <v>33.531377429999999</v>
+        <v>2.8648171690000002</v>
       </c>
       <c r="AB40">
-        <v>543.93563349999999</v>
+        <v>0.214701063</v>
       </c>
       <c r="AC40">
-        <v>59.386162740000003</v>
+        <v>2.1117612019999998</v>
       </c>
       <c r="AD40">
-        <v>7.9720000000000004</v>
+        <v>1383.9534389999999</v>
       </c>
       <c r="AE40">
-        <v>21.716071710000001</v>
+        <v>5.1271895999999997E-2</v>
       </c>
       <c r="AF40">
-        <v>1.624678193</v>
-      </c>
-      <c r="AG40">
-        <v>47.490989409999997</v>
-      </c>
-      <c r="AH40">
-        <v>30.202351029999999</v>
-      </c>
-      <c r="AI40">
-        <v>39.880349019999997</v>
-      </c>
-      <c r="AJ40">
-        <v>121.64257240000001</v>
-      </c>
-      <c r="AK40">
-        <v>0.44862908699999998</v>
-      </c>
-      <c r="AL40">
-        <v>2.8648171690000002</v>
-      </c>
-      <c r="AM40">
-        <v>0.214701063</v>
-      </c>
-      <c r="AN40">
-        <v>2.1117612019999998</v>
-      </c>
-      <c r="AO40">
-        <v>1383.9534389999999</v>
-      </c>
-      <c r="AP40">
-        <v>5.1271895999999997E-2</v>
-      </c>
-      <c r="AQ40">
         <v>2.7238194560000002</v>
       </c>
-      <c r="AR40">
-        <v>88</v>
-      </c>
-      <c r="AS40">
-        <v>46.293665262750004</v>
-      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -6173,10 +4562,10 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1">
         <v>44677</v>
@@ -6197,110 +4586,71 @@
         <v>0.212338045</v>
       </c>
       <c r="L41">
-        <v>78.964806359999997</v>
+        <v>156.25</v>
       </c>
       <c r="M41">
-        <v>156.25</v>
+        <v>337.5</v>
       </c>
       <c r="N41">
-        <v>53.624726789999997</v>
+        <v>3.2845271070000002</v>
       </c>
       <c r="O41">
-        <v>337.5</v>
+        <v>2.893556582</v>
       </c>
       <c r="P41">
-        <v>36.658601040000001</v>
+        <v>1.6441010170000001</v>
       </c>
       <c r="Q41">
-        <v>3.2845271070000002</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="R41">
-        <v>6.1810835580000001</v>
+        <v>0.157</v>
       </c>
       <c r="S41">
-        <v>2.893556582</v>
+        <v>4.5433098489999999</v>
       </c>
       <c r="T41">
-        <v>45.292667950000002</v>
+        <v>0.50078714199999996</v>
       </c>
       <c r="U41">
-        <v>1.6441010170000001</v>
+        <v>456.747299</v>
       </c>
       <c r="V41">
-        <v>1.6910000000000001</v>
+        <v>8.0619999999999994</v>
       </c>
       <c r="W41">
-        <v>0.157</v>
+        <v>1.4057230220000001</v>
       </c>
       <c r="X41">
-        <v>4.5433098489999999</v>
+        <v>26.573444819999999</v>
       </c>
       <c r="Y41">
-        <v>27.661185509999999</v>
+        <v>103.0368576</v>
       </c>
       <c r="Z41">
-        <v>0.50078714199999996</v>
+        <v>0.57086873900000001</v>
       </c>
       <c r="AA41">
-        <v>37.043195259999997</v>
+        <v>3.5539053850000002</v>
       </c>
       <c r="AB41">
-        <v>456.747299</v>
+        <v>0.22108789300000001</v>
       </c>
       <c r="AC41">
-        <v>40.757075209999996</v>
+        <v>2.49796321</v>
       </c>
       <c r="AD41">
-        <v>8.0619999999999994</v>
+        <v>1145.291383</v>
       </c>
       <c r="AE41">
-        <v>11.684463770000001</v>
+        <v>4.9497289E-2</v>
       </c>
       <c r="AF41">
-        <v>1.4057230220000001</v>
-      </c>
-      <c r="AG41">
-        <v>41.515950109999999</v>
-      </c>
-      <c r="AH41">
-        <v>26.573444819999999</v>
-      </c>
-      <c r="AI41">
-        <v>33.337249679999999</v>
-      </c>
-      <c r="AJ41">
-        <v>103.0368576</v>
-      </c>
-      <c r="AK41">
-        <v>0.57086873900000001</v>
-      </c>
-      <c r="AL41">
-        <v>3.5539053850000002</v>
-      </c>
-      <c r="AM41">
-        <v>0.22108789300000001</v>
-      </c>
-      <c r="AN41">
-        <v>2.49796321</v>
-      </c>
-      <c r="AO41">
-        <v>1145.291383</v>
-      </c>
-      <c r="AP41">
-        <v>4.9497289E-2</v>
-      </c>
-      <c r="AQ41">
         <v>3.3361173119999998</v>
-      </c>
-      <c r="AR41">
-        <v>88</v>
-      </c>
-      <c r="AS41">
-        <v>41.726750436499998</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF41">
     <sortCondition ref="A2:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw-data/ocs_soil_health_2022.xlsx
+++ b/raw-data/ocs_soil_health_2022.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E46014-4E9A-B942-B6F4-D1BE6B54E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EE5C16-2358-BB45-90E5-07C7729E9F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14720" yWindow="-28800" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15480" yWindow="980" windowWidth="18960" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
   <si>
     <t>soil_texture_sand</t>
   </si>
@@ -130,9 +141,6 @@
   </si>
   <si>
     <t>entry</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>field</t>
@@ -600,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AH1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,10 +641,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>33</v>
@@ -645,13 +653,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -731,7 +739,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -829,7 +837,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -927,7 +935,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1025,7 +1033,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1123,7 +1131,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1221,7 +1229,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1319,7 +1327,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1417,7 +1425,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1515,7 +1523,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1613,7 +1621,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1711,7 +1719,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1809,7 +1817,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1907,7 +1915,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2005,7 +2013,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2103,7 +2111,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2201,7 +2209,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2299,7 +2307,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2397,7 +2405,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2495,7 +2503,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2593,7 +2601,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2691,7 +2699,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2789,7 +2797,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2887,7 +2895,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2985,7 +2993,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3083,7 +3091,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3181,7 +3189,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3279,7 +3287,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3377,7 +3385,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3475,7 +3483,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3573,7 +3581,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3671,7 +3679,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3769,7 +3777,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3867,7 +3875,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3876,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -3965,7 +3973,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3974,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>32</v>
@@ -4063,7 +4071,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4072,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
         <v>32</v>
@@ -4161,7 +4169,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4170,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
         <v>32</v>
@@ -4259,7 +4267,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -4268,7 +4276,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
         <v>31</v>
@@ -4357,7 +4365,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -4366,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
         <v>31</v>
@@ -4455,7 +4463,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -4464,7 +4472,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
         <v>31</v>
@@ -4553,7 +4561,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -4562,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
         <v>31</v>

--- a/raw-data/ocs_soil_health_2022.xlsx
+++ b/raw-data/ocs_soil_health_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EE5C16-2358-BB45-90E5-07C7729E9F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2613B3-7046-EF4F-8C9E-A756248A2269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15480" yWindow="980" windowWidth="18960" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="80">
   <si>
     <t>soil_texture_sand</t>
   </si>
@@ -606,10 +606,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF41"/>
+  <dimension ref="A1:AF141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4657,6 +4657,211 @@
         <v>3.3361173119999998</v>
       </c>
     </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E101" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E137" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E141" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF41">
     <sortCondition ref="A2:A41"/>

--- a/raw-data/ocs_soil_health_2022.xlsx
+++ b/raw-data/ocs_soil_health_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2613B3-7046-EF4F-8C9E-A756248A2269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA55AEA2-1FD1-614D-BD3D-1CD19F386582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="980" windowWidth="18960" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
   <si>
     <t>soil_texture_sand</t>
   </si>
@@ -606,10 +606,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF141"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4658,209 +4658,7 @@
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E101" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E104" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E105" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E109" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E110" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E112" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E113" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E115" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E118" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E119" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E120" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E121" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E122" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E123" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E124" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E125" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E126" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E127" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E128" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E129" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E130" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E131" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E132" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E133" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E134" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E135" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E136" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E137" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E138" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E139" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E140" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E141" t="s">
-        <v>31</v>
-      </c>
+      <c r="E101" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF41">
